--- a/robot/power/v1.0/LM5069_Design_Calculator_REV_C__BSC070N10NS5.xlsx
+++ b/robot/power/v1.0/LM5069_Design_Calculator_REV_C__BSC070N10NS5.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyfl\Documents\ateam\electrical\robot\power\v1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFF491C-D9F1-495C-A00A-0CD02B440CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EC1997-34BE-4A3E-AED1-E4BE0691A931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookPassword="C5C9" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="652" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="652" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="16" r:id="rId1"/>
@@ -120,7 +120,7 @@
     <definedName name="VINNOM">'Design Calculator'!$F$28</definedName>
     <definedName name="yesno">'Design Calculator'!$AR$15:$AR$16</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -129,6 +129,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -751,7 +752,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="497">
   <si>
     <t>Max Rs =</t>
   </si>
@@ -2940,6 +2941,9 @@
   </si>
   <si>
     <t>BSC070N10NS5</t>
+  </si>
+  <si>
+    <t>STL90N10F7</t>
   </si>
 </sst>
 </file>
@@ -4580,27 +4584,6 @@
     <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4617,6 +4600,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4650,6 +4636,24 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4695,26 +4699,6 @@
     <cellStyle name="UNIT" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
   <dxfs count="37">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -5027,6 +5011,26 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12747,8 +12751,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8670184" y="7822197"/>
-          <a:ext cx="3048000" cy="2728236"/>
+          <a:off x="8489021" y="7867020"/>
+          <a:ext cx="2950883" cy="2780530"/>
           <a:chOff x="8000997" y="4398069"/>
           <a:chExt cx="2861885" cy="2548942"/>
         </a:xfrm>
@@ -13097,8 +13101,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8362951" y="19280074"/>
-          <a:ext cx="3162860" cy="2116438"/>
+          <a:off x="8181788" y="19414544"/>
+          <a:ext cx="3065743" cy="2157526"/>
           <a:chOff x="7873187" y="15693217"/>
           <a:chExt cx="2797322" cy="1973621"/>
         </a:xfrm>
@@ -13190,8 +13194,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8345022" y="21552894"/>
-          <a:ext cx="3234578" cy="2183405"/>
+          <a:off x="8163859" y="21728452"/>
+          <a:ext cx="3137461" cy="2228229"/>
           <a:chOff x="7880463" y="18111714"/>
           <a:chExt cx="2861764" cy="1978020"/>
         </a:xfrm>
@@ -16197,9 +16201,9 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="13.15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="185"/>
       <c r="B1" s="186"/>
       <c r="C1" s="186"/>
@@ -16217,7 +16221,7 @@
       <c r="O1" s="186"/>
       <c r="P1" s="187"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="188"/>
       <c r="B2" s="189"/>
       <c r="C2" s="189"/>
@@ -16235,7 +16239,7 @@
       <c r="O2" s="189"/>
       <c r="P2" s="190"/>
     </row>
-    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.8">
+    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.6">
       <c r="A3" s="188"/>
       <c r="B3" s="189"/>
       <c r="C3" s="189"/>
@@ -16253,7 +16257,7 @@
       <c r="O3" s="189"/>
       <c r="P3" s="190"/>
     </row>
-    <row r="4" spans="1:16" ht="22.5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:16" ht="23" x14ac:dyDescent="0.5">
       <c r="A4" s="188"/>
       <c r="B4" s="189"/>
       <c r="C4" s="189"/>
@@ -16271,7 +16275,7 @@
       <c r="O4" s="189"/>
       <c r="P4" s="190"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="188"/>
       <c r="B5" s="189"/>
       <c r="C5" s="189"/>
@@ -16289,7 +16293,7 @@
       <c r="O5" s="189"/>
       <c r="P5" s="190"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="188"/>
       <c r="B6" s="189"/>
       <c r="C6" s="189"/>
@@ -16307,7 +16311,7 @@
       <c r="O6" s="189"/>
       <c r="P6" s="190"/>
     </row>
-    <row r="7" spans="1:16" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="188"/>
       <c r="B7" s="189"/>
       <c r="C7" s="189"/>
@@ -16327,7 +16331,7 @@
       <c r="O7" s="189"/>
       <c r="P7" s="190"/>
     </row>
-    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.8">
+    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.6">
       <c r="A8" s="188"/>
       <c r="B8" s="191" t="s">
         <v>493</v>
@@ -16347,7 +16351,7 @@
       <c r="O8" s="189"/>
       <c r="P8" s="190"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="188"/>
       <c r="B9" s="189"/>
       <c r="C9" s="189"/>
@@ -16365,7 +16369,7 @@
       <c r="O9" s="189"/>
       <c r="P9" s="190"/>
     </row>
-    <row r="10" spans="1:16" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:16" ht="20" x14ac:dyDescent="0.4">
       <c r="A10" s="188"/>
       <c r="B10" s="194" t="s">
         <v>443</v>
@@ -16385,7 +16389,7 @@
       <c r="O10" s="189"/>
       <c r="P10" s="190"/>
     </row>
-    <row r="11" spans="1:16" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" ht="14" x14ac:dyDescent="0.3">
       <c r="A11" s="188"/>
       <c r="B11" s="195" t="s">
         <v>444</v>
@@ -16405,7 +16409,7 @@
       <c r="O11" s="189"/>
       <c r="P11" s="190"/>
     </row>
-    <row r="12" spans="1:16" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" ht="14" x14ac:dyDescent="0.3">
       <c r="A12" s="188"/>
       <c r="B12" s="195" t="s">
         <v>445</v>
@@ -16425,7 +16429,7 @@
       <c r="O12" s="189"/>
       <c r="P12" s="190"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="188"/>
       <c r="B13" s="189"/>
       <c r="C13" s="189"/>
@@ -16443,7 +16447,7 @@
       <c r="O13" s="189"/>
       <c r="P13" s="190"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="188"/>
       <c r="B14" s="262" t="s">
         <v>480</v>
@@ -16463,7 +16467,7 @@
       <c r="O14" s="189"/>
       <c r="P14" s="190"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="188"/>
       <c r="B15" s="252" t="s">
         <v>466</v>
@@ -16483,7 +16487,7 @@
       <c r="O15" s="189"/>
       <c r="P15" s="190"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="188"/>
       <c r="B16" s="189"/>
       <c r="C16" s="189"/>
@@ -16501,7 +16505,7 @@
       <c r="O16" s="189"/>
       <c r="P16" s="190"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="188"/>
       <c r="B17" s="197" t="s">
         <v>446</v>
@@ -16521,7 +16525,7 @@
       <c r="O17" s="189"/>
       <c r="P17" s="190"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="188"/>
       <c r="B18" s="198" t="s">
         <v>460</v>
@@ -16541,7 +16545,7 @@
       <c r="O18" s="189"/>
       <c r="P18" s="190"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="188"/>
       <c r="B19" s="198" t="s">
         <v>459</v>
@@ -16561,7 +16565,7 @@
       <c r="O19" s="189"/>
       <c r="P19" s="190"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A20" s="188"/>
       <c r="B20" s="198" t="s">
         <v>458</v>
@@ -16581,7 +16585,7 @@
       <c r="O20" s="189"/>
       <c r="P20" s="190"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A21" s="188"/>
       <c r="B21" s="198" t="s">
         <v>454</v>
@@ -16601,7 +16605,7 @@
       <c r="O21" s="189"/>
       <c r="P21" s="190"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A22" s="188"/>
       <c r="B22" s="198" t="s">
         <v>457</v>
@@ -16621,7 +16625,7 @@
       <c r="O22" s="189"/>
       <c r="P22" s="190"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A23" s="188"/>
       <c r="B23" s="198" t="s">
         <v>455</v>
@@ -16641,7 +16645,7 @@
       <c r="O23" s="189"/>
       <c r="P23" s="190"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A24" s="188"/>
       <c r="B24" s="198" t="s">
         <v>456</v>
@@ -16661,7 +16665,7 @@
       <c r="O24" s="189"/>
       <c r="P24" s="190"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A25" s="188"/>
       <c r="B25" s="198"/>
       <c r="C25" s="189"/>
@@ -16679,7 +16683,7 @@
       <c r="O25" s="189"/>
       <c r="P25" s="190"/>
     </row>
-    <row r="26" spans="1:16" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:16" ht="20" x14ac:dyDescent="0.4">
       <c r="A26" s="188"/>
       <c r="B26" s="194" t="s">
         <v>447</v>
@@ -16699,7 +16703,7 @@
       <c r="O26" s="189"/>
       <c r="P26" s="190"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="188"/>
       <c r="B27" s="202" t="s">
         <v>453</v>
@@ -16719,7 +16723,7 @@
       <c r="O27" s="189"/>
       <c r="P27" s="190"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="188"/>
       <c r="B28" s="189" t="s">
         <v>448</v>
@@ -16739,7 +16743,7 @@
       <c r="O28" s="189"/>
       <c r="P28" s="190"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="188"/>
       <c r="B29" s="189"/>
       <c r="C29" s="189"/>
@@ -16757,7 +16761,7 @@
       <c r="O29" s="189"/>
       <c r="P29" s="190"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="188"/>
       <c r="B30" s="202" t="s">
         <v>452</v>
@@ -16777,7 +16781,7 @@
       <c r="O30" s="189"/>
       <c r="P30" s="190"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="188"/>
       <c r="B31" s="189"/>
       <c r="C31" s="189"/>
@@ -16795,7 +16799,7 @@
       <c r="O31" s="189"/>
       <c r="P31" s="190"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="188"/>
       <c r="B32" s="189" t="s">
         <v>449</v>
@@ -16815,7 +16819,7 @@
       <c r="O32" s="189"/>
       <c r="P32" s="190"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="188"/>
       <c r="B33" s="202"/>
       <c r="C33" s="189"/>
@@ -16833,7 +16837,7 @@
       <c r="O33" s="189"/>
       <c r="P33" s="190"/>
     </row>
-    <row r="34" spans="1:16" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:16" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="188"/>
       <c r="B34" s="202"/>
       <c r="C34" s="189"/>
@@ -16851,7 +16855,7 @@
       <c r="O34" s="189"/>
       <c r="P34" s="190"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="188"/>
       <c r="B35" s="253" t="s">
         <v>479</v>
@@ -16871,7 +16875,7 @@
       <c r="O35" s="189"/>
       <c r="P35" s="190"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="188"/>
       <c r="B36" s="256"/>
       <c r="C36" s="257"/>
@@ -16889,7 +16893,7 @@
       <c r="O36" s="189"/>
       <c r="P36" s="190"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="188"/>
       <c r="B37" s="256"/>
       <c r="C37" s="257"/>
@@ -16907,7 +16911,7 @@
       <c r="O37" s="189"/>
       <c r="P37" s="190"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="188"/>
       <c r="B38" s="256"/>
       <c r="C38" s="257"/>
@@ -16925,7 +16929,7 @@
       <c r="O38" s="189"/>
       <c r="P38" s="190"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="188"/>
       <c r="B39" s="256"/>
       <c r="C39" s="257"/>
@@ -16943,7 +16947,7 @@
       <c r="O39" s="189"/>
       <c r="P39" s="190"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="188"/>
       <c r="B40" s="256"/>
       <c r="C40" s="257"/>
@@ -16961,7 +16965,7 @@
       <c r="O40" s="189"/>
       <c r="P40" s="190"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="188"/>
       <c r="B41" s="256"/>
       <c r="C41" s="257"/>
@@ -16979,7 +16983,7 @@
       <c r="O41" s="189"/>
       <c r="P41" s="190"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="188"/>
       <c r="B42" s="256"/>
       <c r="C42" s="257"/>
@@ -16997,7 +17001,7 @@
       <c r="O42" s="189"/>
       <c r="P42" s="190"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="188"/>
       <c r="B43" s="256"/>
       <c r="C43" s="257"/>
@@ -17015,7 +17019,7 @@
       <c r="O43" s="189"/>
       <c r="P43" s="190"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="188"/>
       <c r="B44" s="256"/>
       <c r="C44" s="257"/>
@@ -17033,7 +17037,7 @@
       <c r="O44" s="189"/>
       <c r="P44" s="190"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="188"/>
       <c r="B45" s="256"/>
       <c r="C45" s="257"/>
@@ -17051,7 +17055,7 @@
       <c r="O45" s="189"/>
       <c r="P45" s="190"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="188"/>
       <c r="B46" s="256"/>
       <c r="C46" s="257"/>
@@ -17069,7 +17073,7 @@
       <c r="O46" s="189"/>
       <c r="P46" s="190"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="188"/>
       <c r="B47" s="256"/>
       <c r="C47" s="257"/>
@@ -17087,7 +17091,7 @@
       <c r="O47" s="189"/>
       <c r="P47" s="190"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="188"/>
       <c r="B48" s="256"/>
       <c r="C48" s="257"/>
@@ -17105,7 +17109,7 @@
       <c r="O48" s="189"/>
       <c r="P48" s="190"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="188"/>
       <c r="B49" s="256"/>
       <c r="C49" s="257"/>
@@ -17123,7 +17127,7 @@
       <c r="O49" s="189"/>
       <c r="P49" s="190"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="188"/>
       <c r="B50" s="256"/>
       <c r="C50" s="257"/>
@@ -17141,7 +17145,7 @@
       <c r="O50" s="189"/>
       <c r="P50" s="190"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="188"/>
       <c r="B51" s="256"/>
       <c r="C51" s="257"/>
@@ -17159,7 +17163,7 @@
       <c r="O51" s="189"/>
       <c r="P51" s="190"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="188"/>
       <c r="B52" s="256"/>
       <c r="C52" s="257"/>
@@ -17177,7 +17181,7 @@
       <c r="O52" s="189"/>
       <c r="P52" s="190"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="188"/>
       <c r="B53" s="256"/>
       <c r="C53" s="257"/>
@@ -17195,7 +17199,7 @@
       <c r="O53" s="189"/>
       <c r="P53" s="190"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="188"/>
       <c r="B54" s="256"/>
       <c r="C54" s="257"/>
@@ -17213,7 +17217,7 @@
       <c r="O54" s="189"/>
       <c r="P54" s="190"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="188"/>
       <c r="B55" s="256"/>
       <c r="C55" s="257"/>
@@ -17231,7 +17235,7 @@
       <c r="O55" s="189"/>
       <c r="P55" s="190"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="188"/>
       <c r="B56" s="256"/>
       <c r="C56" s="257"/>
@@ -17249,7 +17253,7 @@
       <c r="O56" s="189"/>
       <c r="P56" s="190"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="188"/>
       <c r="B57" s="256"/>
       <c r="C57" s="257"/>
@@ -17267,7 +17271,7 @@
       <c r="O57" s="189"/>
       <c r="P57" s="190"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="188"/>
       <c r="B58" s="256"/>
       <c r="C58" s="257"/>
@@ -17285,7 +17289,7 @@
       <c r="O58" s="189"/>
       <c r="P58" s="190"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="188"/>
       <c r="B59" s="256"/>
       <c r="C59" s="257"/>
@@ -17303,7 +17307,7 @@
       <c r="O59" s="189"/>
       <c r="P59" s="190"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="188"/>
       <c r="B60" s="256"/>
       <c r="C60" s="257"/>
@@ -17321,7 +17325,7 @@
       <c r="O60" s="189"/>
       <c r="P60" s="190"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="188"/>
       <c r="B61" s="256"/>
       <c r="C61" s="257"/>
@@ -17339,7 +17343,7 @@
       <c r="O61" s="189"/>
       <c r="P61" s="190"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="188"/>
       <c r="B62" s="256"/>
       <c r="C62" s="257"/>
@@ -17357,7 +17361,7 @@
       <c r="O62" s="189"/>
       <c r="P62" s="190"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="188"/>
       <c r="B63" s="256"/>
       <c r="C63" s="257"/>
@@ -17375,7 +17379,7 @@
       <c r="O63" s="189"/>
       <c r="P63" s="190"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="188"/>
       <c r="B64" s="256"/>
       <c r="C64" s="257"/>
@@ -17393,7 +17397,7 @@
       <c r="O64" s="189"/>
       <c r="P64" s="190"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="188"/>
       <c r="B65" s="256"/>
       <c r="C65" s="257"/>
@@ -17411,7 +17415,7 @@
       <c r="O65" s="189"/>
       <c r="P65" s="190"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="188"/>
       <c r="B66" s="256"/>
       <c r="C66" s="257"/>
@@ -17429,7 +17433,7 @@
       <c r="O66" s="189"/>
       <c r="P66" s="190"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="188"/>
       <c r="B67" s="256"/>
       <c r="C67" s="257"/>
@@ -17447,7 +17451,7 @@
       <c r="O67" s="189"/>
       <c r="P67" s="190"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="188"/>
       <c r="B68" s="256"/>
       <c r="C68" s="257"/>
@@ -17465,7 +17469,7 @@
       <c r="O68" s="189"/>
       <c r="P68" s="190"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="188"/>
       <c r="B69" s="256"/>
       <c r="C69" s="257"/>
@@ -17483,7 +17487,7 @@
       <c r="O69" s="189"/>
       <c r="P69" s="190"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="188"/>
       <c r="B70" s="256"/>
       <c r="C70" s="257"/>
@@ -17501,7 +17505,7 @@
       <c r="O70" s="189"/>
       <c r="P70" s="190"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="188"/>
       <c r="B71" s="256"/>
       <c r="C71" s="257"/>
@@ -17519,7 +17523,7 @@
       <c r="O71" s="189"/>
       <c r="P71" s="190"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="188"/>
       <c r="B72" s="256"/>
       <c r="C72" s="257"/>
@@ -17537,7 +17541,7 @@
       <c r="O72" s="189"/>
       <c r="P72" s="190"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="188"/>
       <c r="B73" s="256"/>
       <c r="C73" s="257"/>
@@ -17555,7 +17559,7 @@
       <c r="O73" s="189"/>
       <c r="P73" s="190"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="188"/>
       <c r="B74" s="256"/>
       <c r="C74" s="257"/>
@@ -17573,7 +17577,7 @@
       <c r="O74" s="189"/>
       <c r="P74" s="190"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="188"/>
       <c r="B75" s="256"/>
       <c r="C75" s="257"/>
@@ -17591,7 +17595,7 @@
       <c r="O75" s="189"/>
       <c r="P75" s="190"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="188"/>
       <c r="B76" s="256"/>
       <c r="C76" s="257"/>
@@ -17609,7 +17613,7 @@
       <c r="O76" s="189"/>
       <c r="P76" s="190"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="188"/>
       <c r="B77" s="256"/>
       <c r="C77" s="257"/>
@@ -17627,7 +17631,7 @@
       <c r="O77" s="189"/>
       <c r="P77" s="190"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="188"/>
       <c r="B78" s="256"/>
       <c r="C78" s="257"/>
@@ -17645,7 +17649,7 @@
       <c r="O78" s="189"/>
       <c r="P78" s="190"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="188"/>
       <c r="B79" s="256"/>
       <c r="C79" s="257"/>
@@ -17663,7 +17667,7 @@
       <c r="O79" s="189"/>
       <c r="P79" s="190"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="188"/>
       <c r="B80" s="256"/>
       <c r="C80" s="257"/>
@@ -17681,7 +17685,7 @@
       <c r="O80" s="189"/>
       <c r="P80" s="190"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="188"/>
       <c r="B81" s="256"/>
       <c r="C81" s="257"/>
@@ -17699,7 +17703,7 @@
       <c r="O81" s="189"/>
       <c r="P81" s="190"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="188"/>
       <c r="B82" s="256"/>
       <c r="C82" s="257"/>
@@ -17717,7 +17721,7 @@
       <c r="O82" s="189"/>
       <c r="P82" s="190"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="188"/>
       <c r="B83" s="256"/>
       <c r="C83" s="257"/>
@@ -17735,7 +17739,7 @@
       <c r="O83" s="189"/>
       <c r="P83" s="190"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="188"/>
       <c r="B84" s="256"/>
       <c r="C84" s="257"/>
@@ -17753,7 +17757,7 @@
       <c r="O84" s="189"/>
       <c r="P84" s="190"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="188"/>
       <c r="B85" s="256"/>
       <c r="C85" s="257"/>
@@ -17771,7 +17775,7 @@
       <c r="O85" s="189"/>
       <c r="P85" s="190"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="188"/>
       <c r="B86" s="256"/>
       <c r="C86" s="257"/>
@@ -17789,7 +17793,7 @@
       <c r="O86" s="189"/>
       <c r="P86" s="190"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="188"/>
       <c r="B87" s="256"/>
       <c r="C87" s="257"/>
@@ -17807,7 +17811,7 @@
       <c r="O87" s="189"/>
       <c r="P87" s="190"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="188"/>
       <c r="B88" s="256"/>
       <c r="C88" s="257"/>
@@ -17825,7 +17829,7 @@
       <c r="O88" s="189"/>
       <c r="P88" s="190"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="188"/>
       <c r="B89" s="256"/>
       <c r="C89" s="257"/>
@@ -17843,7 +17847,7 @@
       <c r="O89" s="189"/>
       <c r="P89" s="190"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="188"/>
       <c r="B90" s="256"/>
       <c r="C90" s="257"/>
@@ -17861,7 +17865,7 @@
       <c r="O90" s="189"/>
       <c r="P90" s="190"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="188"/>
       <c r="B91" s="256"/>
       <c r="C91" s="257"/>
@@ -17879,7 +17883,7 @@
       <c r="O91" s="189"/>
       <c r="P91" s="190"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="188"/>
       <c r="B92" s="256"/>
       <c r="C92" s="257"/>
@@ -17897,7 +17901,7 @@
       <c r="O92" s="189"/>
       <c r="P92" s="190"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="188"/>
       <c r="B93" s="256"/>
       <c r="C93" s="257"/>
@@ -17915,7 +17919,7 @@
       <c r="O93" s="189"/>
       <c r="P93" s="190"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="188"/>
       <c r="B94" s="256"/>
       <c r="C94" s="257"/>
@@ -17933,7 +17937,7 @@
       <c r="O94" s="189"/>
       <c r="P94" s="190"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="188"/>
       <c r="B95" s="256"/>
       <c r="C95" s="257"/>
@@ -17951,7 +17955,7 @@
       <c r="O95" s="189"/>
       <c r="P95" s="190"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="188"/>
       <c r="B96" s="256"/>
       <c r="C96" s="257"/>
@@ -17969,7 +17973,7 @@
       <c r="O96" s="189"/>
       <c r="P96" s="190"/>
     </row>
-    <row r="97" spans="1:16" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:16" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="188"/>
       <c r="B97" s="259"/>
       <c r="C97" s="260"/>
@@ -17987,7 +17991,7 @@
       <c r="O97" s="189"/>
       <c r="P97" s="190"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="188"/>
       <c r="B98" s="189"/>
       <c r="C98" s="189"/>
@@ -18005,7 +18009,7 @@
       <c r="O98" s="189"/>
       <c r="P98" s="190"/>
     </row>
-    <row r="99" spans="1:16" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:16" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="199"/>
       <c r="B99" s="200"/>
       <c r="C99" s="200"/>
@@ -18023,7 +18027,7 @@
       <c r="O99" s="200"/>
       <c r="P99" s="201"/>
     </row>
-    <row r="100" spans="1:16" ht="13.15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="100" spans="1:16" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B15:I15"/>
@@ -18044,80 +18048,80 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AS214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.3984375" customWidth="1"/>
+    <col min="1" max="1" width="0.36328125" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="15.1328125" customWidth="1"/>
-    <col min="4" max="4" width="17.265625" customWidth="1"/>
-    <col min="5" max="5" width="20.86328125" customWidth="1"/>
-    <col min="6" max="6" width="16.86328125" customWidth="1"/>
-    <col min="7" max="7" width="5.59765625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.59765625" customWidth="1"/>
-    <col min="9" max="9" width="12.86328125" customWidth="1"/>
-    <col min="11" max="11" width="10.265625" customWidth="1"/>
-    <col min="12" max="12" width="8.86328125" customWidth="1"/>
-    <col min="13" max="13" width="9.86328125" customWidth="1"/>
+    <col min="3" max="3" width="15.08984375" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" customWidth="1"/>
+    <col min="7" max="7" width="5.6328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6328125" customWidth="1"/>
+    <col min="9" max="9" width="12.81640625" customWidth="1"/>
+    <col min="11" max="11" width="10.26953125" customWidth="1"/>
+    <col min="12" max="12" width="8.81640625" customWidth="1"/>
+    <col min="13" max="13" width="9.81640625" customWidth="1"/>
     <col min="14" max="19" width="0" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="2.73046875" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="2.7265625" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="3" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="1.1328125" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="3.73046875" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="1.08984375" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="3.7265625" hidden="1" customWidth="1"/>
     <col min="24" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="11.73046875" customWidth="1"/>
-    <col min="40" max="40" width="6.73046875" customWidth="1"/>
-    <col min="41" max="41" width="9.265625" customWidth="1"/>
-    <col min="42" max="42" width="12.265625" customWidth="1"/>
+    <col min="39" max="39" width="11.7265625" customWidth="1"/>
+    <col min="40" max="40" width="6.7265625" customWidth="1"/>
+    <col min="41" max="41" width="9.26953125" customWidth="1"/>
+    <col min="42" max="42" width="12.26953125" customWidth="1"/>
     <col min="43" max="43" width="12" customWidth="1"/>
-    <col min="44" max="44" width="13.3984375" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="14.59765625" customWidth="1"/>
-    <col min="46" max="46" width="14.73046875" customWidth="1"/>
-    <col min="47" max="47" width="11.265625" customWidth="1"/>
+    <col min="44" max="44" width="13.36328125" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="14.6328125" customWidth="1"/>
+    <col min="46" max="46" width="14.7265625" customWidth="1"/>
+    <col min="47" max="47" width="11.26953125" customWidth="1"/>
     <col min="48" max="48" width="13" customWidth="1"/>
-    <col min="49" max="49" width="13.3984375" customWidth="1"/>
-    <col min="50" max="50" width="14.73046875" customWidth="1"/>
-    <col min="51" max="51" width="14.1328125" customWidth="1"/>
-    <col min="52" max="52" width="12.86328125" customWidth="1"/>
-    <col min="53" max="53" width="12.59765625" customWidth="1"/>
-    <col min="54" max="54" width="9.86328125" customWidth="1"/>
-    <col min="55" max="55" width="12.73046875" customWidth="1"/>
-    <col min="56" max="56" width="13.73046875" customWidth="1"/>
-    <col min="57" max="57" width="13.86328125" customWidth="1"/>
-    <col min="58" max="59" width="14.3984375" customWidth="1"/>
-    <col min="60" max="60" width="15.3984375" customWidth="1"/>
-    <col min="61" max="61" width="15.265625" customWidth="1"/>
-    <col min="62" max="62" width="15.73046875" customWidth="1"/>
-    <col min="63" max="63" width="12.59765625" customWidth="1"/>
-    <col min="64" max="64" width="16.86328125" customWidth="1"/>
-    <col min="65" max="65" width="15.3984375" customWidth="1"/>
-    <col min="66" max="66" width="14.59765625" customWidth="1"/>
+    <col min="49" max="49" width="13.36328125" customWidth="1"/>
+    <col min="50" max="50" width="14.7265625" customWidth="1"/>
+    <col min="51" max="51" width="14.08984375" customWidth="1"/>
+    <col min="52" max="52" width="12.81640625" customWidth="1"/>
+    <col min="53" max="53" width="12.6328125" customWidth="1"/>
+    <col min="54" max="54" width="9.81640625" customWidth="1"/>
+    <col min="55" max="55" width="12.7265625" customWidth="1"/>
+    <col min="56" max="56" width="13.7265625" customWidth="1"/>
+    <col min="57" max="57" width="13.81640625" customWidth="1"/>
+    <col min="58" max="59" width="14.36328125" customWidth="1"/>
+    <col min="60" max="60" width="15.36328125" customWidth="1"/>
+    <col min="61" max="61" width="15.26953125" customWidth="1"/>
+    <col min="62" max="62" width="15.7265625" customWidth="1"/>
+    <col min="63" max="63" width="12.6328125" customWidth="1"/>
+    <col min="64" max="64" width="16.81640625" customWidth="1"/>
+    <col min="65" max="65" width="15.36328125" customWidth="1"/>
+    <col min="66" max="66" width="14.6328125" customWidth="1"/>
     <col min="67" max="67" width="10" customWidth="1"/>
-    <col min="68" max="68" width="6.1328125" customWidth="1"/>
-    <col min="69" max="69" width="7.1328125" customWidth="1"/>
-    <col min="70" max="70" width="8.265625" customWidth="1"/>
-    <col min="71" max="71" width="4.73046875" customWidth="1"/>
+    <col min="68" max="68" width="6.08984375" customWidth="1"/>
+    <col min="69" max="69" width="7.08984375" customWidth="1"/>
+    <col min="70" max="70" width="8.26953125" customWidth="1"/>
+    <col min="71" max="71" width="4.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="106" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="271" t="s">
+    <row r="1" spans="1:44" s="106" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="264" t="s">
         <v>473</v>
       </c>
-      <c r="B1" s="272"/>
-      <c r="C1" s="272"/>
-      <c r="D1" s="272"/>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
-      <c r="I1" s="272"/>
-      <c r="J1" s="272"/>
-      <c r="K1" s="272"/>
-      <c r="L1" s="272"/>
-      <c r="M1" s="272"/>
+      <c r="B1" s="265"/>
+      <c r="C1" s="265"/>
+      <c r="D1" s="265"/>
+      <c r="E1" s="265"/>
+      <c r="F1" s="265"/>
+      <c r="G1" s="265"/>
+      <c r="H1" s="265"/>
+      <c r="I1" s="265"/>
+      <c r="J1" s="265"/>
+      <c r="K1" s="265"/>
+      <c r="L1" s="265"/>
+      <c r="M1" s="265"/>
       <c r="N1" s="36"/>
       <c r="O1" s="36"/>
       <c r="P1" s="36"/>
@@ -18145,7 +18149,7 @@
       <c r="AL1" s="34"/>
       <c r="AM1" s="34"/>
     </row>
-    <row r="2" spans="1:44" ht="15.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:44" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="33" t="s">
         <v>104</v>
@@ -18159,8 +18163,8 @@
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
-      <c r="L2" s="270"/>
-      <c r="M2" s="270"/>
+      <c r="L2" s="263"/>
+      <c r="M2" s="263"/>
       <c r="N2" s="17"/>
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
@@ -18188,7 +18192,7 @@
       <c r="AL2" s="17"/>
       <c r="AM2" s="17"/>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -18229,7 +18233,7 @@
       <c r="AL3" s="17"/>
       <c r="AM3" s="17"/>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -18270,7 +18274,7 @@
       <c r="AL4" s="17"/>
       <c r="AM4" s="17"/>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -18311,7 +18315,7 @@
       <c r="AL5" s="17"/>
       <c r="AM5" s="17"/>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -18352,7 +18356,7 @@
       <c r="AL6" s="17"/>
       <c r="AM6" s="17"/>
     </row>
-    <row r="7" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -18393,7 +18397,7 @@
       <c r="AL7" s="17"/>
       <c r="AM7" s="17"/>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -18434,7 +18438,7 @@
       <c r="AL8" s="17"/>
       <c r="AM8" s="17"/>
     </row>
-    <row r="9" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="21"/>
       <c r="C9" s="170"/>
@@ -18477,7 +18481,7 @@
       <c r="AL9" s="17"/>
       <c r="AM9" s="17"/>
     </row>
-    <row r="10" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="22"/>
       <c r="C10" s="19"/>
@@ -18520,14 +18524,14 @@
       <c r="AL10" s="17"/>
       <c r="AM10" s="17"/>
     </row>
-    <row r="11" spans="1:44" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:44" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="22"/>
       <c r="C11" s="178"/>
-      <c r="D11" s="273" t="s">
+      <c r="D11" s="266" t="s">
         <v>451</v>
       </c>
-      <c r="E11" s="274"/>
+      <c r="E11" s="267"/>
       <c r="F11" s="17"/>
       <c r="G11" s="18"/>
       <c r="H11" s="17"/>
@@ -18563,12 +18567,12 @@
       <c r="AL11" s="17"/>
       <c r="AM11" s="17"/>
     </row>
-    <row r="12" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="22"/>
       <c r="C12" s="177"/>
-      <c r="D12" s="273"/>
-      <c r="E12" s="274"/>
+      <c r="D12" s="266"/>
+      <c r="E12" s="267"/>
       <c r="F12" s="17"/>
       <c r="G12" s="18"/>
       <c r="H12" s="17"/>
@@ -18604,7 +18608,7 @@
       <c r="AL12" s="17"/>
       <c r="AM12" s="17"/>
     </row>
-    <row r="13" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -18645,18 +18649,18 @@
       <c r="AL13" s="17"/>
       <c r="AM13" s="17"/>
     </row>
-    <row r="14" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17"/>
       <c r="B14" s="227" t="s">
         <v>481</v>
       </c>
       <c r="C14" s="238"/>
-      <c r="D14" s="277" t="s">
+      <c r="D14" s="271" t="s">
         <v>482</v>
       </c>
-      <c r="E14" s="277"/>
-      <c r="F14" s="277"/>
-      <c r="G14" s="277"/>
+      <c r="E14" s="271"/>
+      <c r="F14" s="271"/>
+      <c r="G14" s="271"/>
       <c r="H14" s="235"/>
       <c r="I14" s="220"/>
       <c r="J14" s="220"/>
@@ -18690,14 +18694,14 @@
       <c r="AL14" s="220"/>
       <c r="AM14" s="226"/>
     </row>
-    <row r="15" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17"/>
       <c r="B15" s="228"/>
       <c r="C15" s="237"/>
-      <c r="D15" s="278"/>
-      <c r="E15" s="278"/>
-      <c r="F15" s="278"/>
-      <c r="G15" s="278"/>
+      <c r="D15" s="272"/>
+      <c r="E15" s="272"/>
+      <c r="F15" s="272"/>
+      <c r="G15" s="272"/>
       <c r="H15" s="236"/>
       <c r="I15" s="219"/>
       <c r="J15" s="219"/>
@@ -18734,18 +18738,18 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
-      <c r="B16" s="276"/>
+      <c r="B16" s="270"/>
       <c r="C16" s="229"/>
-      <c r="D16" s="283" t="s">
+      <c r="D16" s="277" t="s">
         <v>483</v>
       </c>
-      <c r="E16" s="283"/>
-      <c r="F16" s="283"/>
-      <c r="G16" s="283"/>
-      <c r="H16" s="283"/>
-      <c r="I16" s="283"/>
+      <c r="E16" s="277"/>
+      <c r="F16" s="277"/>
+      <c r="G16" s="277"/>
+      <c r="H16" s="277"/>
+      <c r="I16" s="277"/>
       <c r="J16" s="232"/>
       <c r="K16" s="219"/>
       <c r="L16" s="219"/>
@@ -18780,18 +18784,18 @@
         <v>194</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17"/>
-      <c r="B17" s="276"/>
+      <c r="B17" s="270"/>
       <c r="C17" s="229"/>
-      <c r="D17" s="283" t="s">
+      <c r="D17" s="277" t="s">
         <v>484</v>
       </c>
-      <c r="E17" s="283"/>
-      <c r="F17" s="283"/>
-      <c r="G17" s="283"/>
-      <c r="H17" s="283"/>
-      <c r="I17" s="283"/>
+      <c r="E17" s="277"/>
+      <c r="F17" s="277"/>
+      <c r="G17" s="277"/>
+      <c r="H17" s="277"/>
+      <c r="I17" s="277"/>
       <c r="J17" s="219"/>
       <c r="K17" s="219"/>
       <c r="L17" s="219"/>
@@ -18823,18 +18827,18 @@
       <c r="AL17" s="219"/>
       <c r="AM17" s="224"/>
     </row>
-    <row r="18" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17"/>
-      <c r="B18" s="276"/>
+      <c r="B18" s="270"/>
       <c r="C18" s="229"/>
-      <c r="D18" s="283" t="s">
+      <c r="D18" s="277" t="s">
         <v>485</v>
       </c>
-      <c r="E18" s="283"/>
-      <c r="F18" s="283"/>
-      <c r="G18" s="283"/>
-      <c r="H18" s="283"/>
-      <c r="I18" s="283"/>
+      <c r="E18" s="277"/>
+      <c r="F18" s="277"/>
+      <c r="G18" s="277"/>
+      <c r="H18" s="277"/>
+      <c r="I18" s="277"/>
       <c r="J18" s="219"/>
       <c r="K18" s="219"/>
       <c r="L18" s="219"/>
@@ -18866,18 +18870,18 @@
       <c r="AL18" s="219"/>
       <c r="AM18" s="224"/>
     </row>
-    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17"/>
-      <c r="B19" s="276"/>
+      <c r="B19" s="270"/>
       <c r="C19" s="229"/>
-      <c r="D19" s="283" t="s">
+      <c r="D19" s="277" t="s">
         <v>486</v>
       </c>
-      <c r="E19" s="283"/>
-      <c r="F19" s="283"/>
-      <c r="G19" s="283"/>
-      <c r="H19" s="283"/>
-      <c r="I19" s="283"/>
+      <c r="E19" s="277"/>
+      <c r="F19" s="277"/>
+      <c r="G19" s="277"/>
+      <c r="H19" s="277"/>
+      <c r="I19" s="277"/>
       <c r="J19" s="219"/>
       <c r="K19" s="219"/>
       <c r="L19" s="219"/>
@@ -18909,7 +18913,7 @@
       <c r="AL19" s="219"/>
       <c r="AM19" s="224"/>
     </row>
-    <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17"/>
       <c r="B20" s="233"/>
       <c r="C20" s="229"/>
@@ -18952,7 +18956,7 @@
       <c r="AL20" s="219"/>
       <c r="AM20" s="224"/>
     </row>
-    <row r="21" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="221"/>
       <c r="C21" s="219"/>
@@ -18993,15 +18997,15 @@
       <c r="AL21" s="219"/>
       <c r="AM21" s="224"/>
     </row>
-    <row r="22" spans="1:39" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:39" ht="29.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="221"/>
       <c r="C22" s="219"/>
-      <c r="D22" s="279" t="s">
+      <c r="D22" s="273" t="s">
         <v>487</v>
       </c>
-      <c r="E22" s="280"/>
-      <c r="F22" s="281"/>
+      <c r="E22" s="274"/>
+      <c r="F22" s="275"/>
       <c r="G22" s="240" t="s">
         <v>195</v>
       </c>
@@ -19038,15 +19042,15 @@
       <c r="AL22" s="219"/>
       <c r="AM22" s="224"/>
     </row>
-    <row r="23" spans="1:39" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:39" ht="32.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="17"/>
       <c r="B23" s="221"/>
       <c r="C23" s="219"/>
-      <c r="D23" s="284" t="s">
+      <c r="D23" s="278" t="s">
         <v>488</v>
       </c>
-      <c r="E23" s="285"/>
-      <c r="F23" s="286"/>
+      <c r="E23" s="279"/>
+      <c r="F23" s="280"/>
       <c r="G23" s="241" t="s">
         <v>195</v>
       </c>
@@ -19083,15 +19087,15 @@
       <c r="AL23" s="219"/>
       <c r="AM23" s="224"/>
     </row>
-    <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="221"/>
       <c r="C24" s="219"/>
-      <c r="D24" s="282" t="s">
+      <c r="D24" s="276" t="s">
         <v>489</v>
       </c>
-      <c r="E24" s="282"/>
-      <c r="F24" s="282"/>
+      <c r="E24" s="276"/>
+      <c r="F24" s="276"/>
       <c r="G24" s="219"/>
       <c r="H24" s="219"/>
       <c r="I24" s="219"/>
@@ -19126,13 +19130,13 @@
       <c r="AL24" s="219"/>
       <c r="AM24" s="224"/>
     </row>
-    <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="221"/>
       <c r="C25" s="219"/>
-      <c r="D25" s="282"/>
-      <c r="E25" s="282"/>
-      <c r="F25" s="282"/>
+      <c r="D25" s="276"/>
+      <c r="E25" s="276"/>
+      <c r="F25" s="276"/>
       <c r="G25" s="234"/>
       <c r="H25" s="219"/>
       <c r="I25" s="219"/>
@@ -19167,7 +19171,7 @@
       <c r="AL25" s="219"/>
       <c r="AM25" s="224"/>
     </row>
-    <row r="26" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="222"/>
       <c r="C26" s="223"/>
@@ -19208,7 +19212,7 @@
       <c r="AL26" s="223"/>
       <c r="AM26" s="225"/>
     </row>
-    <row r="27" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="130" t="s">
         <v>149</v>
@@ -19257,7 +19261,7 @@
       <c r="AL27" s="75"/>
       <c r="AM27" s="107"/>
     </row>
-    <row r="28" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="77"/>
       <c r="C28" s="17"/>
@@ -19304,7 +19308,7 @@
       <c r="AL28" s="17"/>
       <c r="AM28" s="90"/>
     </row>
-    <row r="29" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="78"/>
       <c r="C29" s="17"/>
@@ -19351,7 +19355,7 @@
       <c r="AL29" s="17"/>
       <c r="AM29" s="90"/>
     </row>
-    <row r="30" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="78"/>
       <c r="C30" s="17"/>
@@ -19399,7 +19403,7 @@
       <c r="AL30" s="17"/>
       <c r="AM30" s="90"/>
     </row>
-    <row r="31" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="78"/>
       <c r="C31" s="17"/>
@@ -19446,7 +19450,7 @@
       <c r="AL31" s="17"/>
       <c r="AM31" s="90"/>
     </row>
-    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="B32" s="78"/>
       <c r="C32" s="17"/>
@@ -19493,9 +19497,9 @@
       <c r="AL32" s="17"/>
       <c r="AM32" s="90"/>
     </row>
-    <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
-      <c r="B33" s="263" t="s">
+      <c r="B33" s="281" t="s">
         <v>491</v>
       </c>
       <c r="C33" s="17"/>
@@ -19536,9 +19540,9 @@
       <c r="AL33" s="17"/>
       <c r="AM33" s="90"/>
     </row>
-    <row r="34" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
-      <c r="B34" s="263"/>
+      <c r="B34" s="281"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
       <c r="E34" s="58"/>
@@ -19577,7 +19581,7 @@
       <c r="AL34" s="17"/>
       <c r="AM34" s="90"/>
     </row>
-    <row r="35" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="79"/>
       <c r="C35" s="80"/>
@@ -19618,7 +19622,7 @@
       <c r="AL35" s="80"/>
       <c r="AM35" s="94"/>
     </row>
-    <row r="36" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="130" t="s">
         <v>226</v>
@@ -19666,7 +19670,7 @@
       <c r="AM36" s="107"/>
       <c r="AN36" s="28"/>
     </row>
-    <row r="37" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="82"/>
       <c r="C37" s="17"/>
@@ -19715,7 +19719,7 @@
       <c r="AM37" s="90"/>
       <c r="AN37" s="28"/>
     </row>
-    <row r="38" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="78"/>
       <c r="C38" s="17"/>
@@ -19763,7 +19767,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="B39" s="78"/>
       <c r="C39" s="17"/>
@@ -19813,7 +19817,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="40" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
       <c r="B40" s="78"/>
       <c r="C40" s="17"/>
@@ -19861,7 +19865,7 @@
       <c r="AL40" s="17"/>
       <c r="AM40" s="90"/>
     </row>
-    <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="B41" s="78"/>
       <c r="C41" s="17"/>
@@ -19909,7 +19913,7 @@
       <c r="AL41" s="17"/>
       <c r="AM41" s="90"/>
     </row>
-    <row r="42" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
       <c r="B42" s="78"/>
       <c r="C42" s="17"/>
@@ -19960,7 +19964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:40" ht="29.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:40" ht="29.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="B43" s="247" t="s">
         <v>491</v>
@@ -20009,7 +20013,7 @@
       <c r="AL43" s="17"/>
       <c r="AM43" s="90"/>
     </row>
-    <row r="44" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
       <c r="B44" s="247"/>
       <c r="C44" s="17"/>
@@ -20057,7 +20061,7 @@
       <c r="AL44" s="17"/>
       <c r="AM44" s="90"/>
     </row>
-    <row r="45" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="B45" s="247"/>
       <c r="C45" s="17"/>
@@ -20105,7 +20109,7 @@
       <c r="AL45" s="17"/>
       <c r="AM45" s="90"/>
     </row>
-    <row r="46" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
       <c r="B46" s="78"/>
       <c r="C46" s="17"/>
@@ -20153,7 +20157,7 @@
       <c r="AL46" s="17"/>
       <c r="AM46" s="90"/>
     </row>
-    <row r="47" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="B47" s="78"/>
       <c r="C47" s="17"/>
@@ -20203,7 +20207,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="48" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17"/>
       <c r="B48" s="78"/>
       <c r="C48" s="17"/>
@@ -20254,7 +20258,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="49" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
       <c r="B49" s="78"/>
       <c r="C49" s="17"/>
@@ -20302,7 +20306,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="50" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
       <c r="B50" s="79"/>
       <c r="C50" s="80"/>
@@ -20350,7 +20354,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="51" spans="1:45" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:45" ht="14" x14ac:dyDescent="0.3">
       <c r="A51" s="17"/>
       <c r="B51" s="130" t="s">
         <v>122</v>
@@ -20361,7 +20365,7 @@
         <v>474</v>
       </c>
       <c r="F51" s="215" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G51" s="154"/>
       <c r="H51" s="75"/>
@@ -20397,7 +20401,7 @@
       <c r="AL51" s="75"/>
       <c r="AM51" s="107"/>
     </row>
-    <row r="52" spans="1:45" ht="15" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:45" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A52" s="17"/>
       <c r="B52" s="78"/>
       <c r="C52" s="17"/>
@@ -20452,7 +20456,7 @@
         <v>4.193548387096774</v>
       </c>
     </row>
-    <row r="53" spans="1:45" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:45" ht="13" x14ac:dyDescent="0.3">
       <c r="A53" s="17"/>
       <c r="B53" s="78"/>
       <c r="C53" s="17"/>
@@ -20502,7 +20506,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="54" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="17"/>
       <c r="B54" s="78"/>
       <c r="C54" s="17"/>
@@ -20553,7 +20557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:45" ht="14.25" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:45" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
       <c r="B55" s="184"/>
       <c r="C55" s="17"/>
@@ -20604,7 +20608,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="56" spans="1:45" ht="22.15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:45" ht="22.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="17"/>
       <c r="B56" s="248"/>
       <c r="C56" s="17"/>
@@ -20655,7 +20659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="17"/>
       <c r="B57" s="249" t="s">
         <v>122</v>
@@ -20708,7 +20712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:45" ht="15" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:45" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A58" s="17"/>
       <c r="B58" s="248"/>
       <c r="C58" s="17"/>
@@ -20759,7 +20763,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="59" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="17"/>
       <c r="B59" s="248"/>
       <c r="C59" s="17"/>
@@ -20809,9 +20813,9 @@
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
-      <c r="AS59" s="267"/>
-    </row>
-    <row r="60" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AS59" s="284"/>
+    </row>
+    <row r="60" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="17"/>
       <c r="B60" s="248"/>
       <c r="C60" s="17"/>
@@ -20861,11 +20865,11 @@
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="AS60" s="267"/>
-    </row>
-    <row r="61" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AS60" s="284"/>
+    </row>
+    <row r="61" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17"/>
-      <c r="B61" s="267" t="s">
+      <c r="B61" s="284" t="s">
         <v>462</v>
       </c>
       <c r="C61" s="17"/>
@@ -20912,11 +20916,11 @@
       <c r="AK61" s="17"/>
       <c r="AL61" s="17"/>
       <c r="AM61" s="90"/>
-      <c r="AS61" s="267"/>
-    </row>
-    <row r="62" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AS61" s="284"/>
+    </row>
+    <row r="62" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="17"/>
-      <c r="B62" s="267"/>
+      <c r="B62" s="284"/>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
       <c r="E62" s="32" t="s">
@@ -20961,11 +20965,11 @@
       <c r="AK62" s="17"/>
       <c r="AL62" s="17"/>
       <c r="AM62" s="90"/>
-      <c r="AS62" s="267"/>
-    </row>
-    <row r="63" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AS62" s="284"/>
+    </row>
+    <row r="63" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
-      <c r="B63" s="267"/>
+      <c r="B63" s="284"/>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
       <c r="E63" s="58" t="s">
@@ -21010,11 +21014,11 @@
       <c r="AK63" s="17"/>
       <c r="AL63" s="17"/>
       <c r="AM63" s="90"/>
-      <c r="AS63" s="267"/>
-    </row>
-    <row r="64" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AS63" s="284"/>
+    </row>
+    <row r="64" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17"/>
-      <c r="B64" s="267"/>
+      <c r="B64" s="284"/>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
       <c r="E64" s="58" t="s">
@@ -21058,11 +21062,11 @@
       <c r="AK64" s="17"/>
       <c r="AL64" s="17"/>
       <c r="AM64" s="90"/>
-      <c r="AS64" s="267"/>
-    </row>
-    <row r="65" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AS64" s="284"/>
+    </row>
+    <row r="65" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="17"/>
-      <c r="B65" s="267"/>
+      <c r="B65" s="284"/>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
       <c r="E65" s="58" t="s">
@@ -21107,11 +21111,11 @@
       <c r="AK65" s="17"/>
       <c r="AL65" s="17"/>
       <c r="AM65" s="90"/>
-      <c r="AS65" s="267"/>
-    </row>
-    <row r="66" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AS65" s="284"/>
+    </row>
+    <row r="66" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="17"/>
-      <c r="B66" s="267"/>
+      <c r="B66" s="284"/>
       <c r="C66" s="17"/>
       <c r="D66" s="17"/>
       <c r="E66" s="58" t="s">
@@ -21124,13 +21128,13 @@
         <v>84</v>
       </c>
       <c r="H66" s="17"/>
-      <c r="I66" s="264" t="s">
+      <c r="I66" s="269" t="s">
         <v>492</v>
       </c>
-      <c r="J66" s="265"/>
-      <c r="K66" s="265"/>
-      <c r="L66" s="265"/>
-      <c r="M66" s="265"/>
+      <c r="J66" s="282"/>
+      <c r="K66" s="282"/>
+      <c r="L66" s="282"/>
+      <c r="M66" s="282"/>
       <c r="N66" s="17"/>
       <c r="O66" s="17"/>
       <c r="P66" s="17"/>
@@ -21158,9 +21162,9 @@
       <c r="AL66" s="17"/>
       <c r="AM66" s="90"/>
     </row>
-    <row r="67" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="17"/>
-      <c r="B67" s="267"/>
+      <c r="B67" s="284"/>
       <c r="C67" s="17"/>
       <c r="D67" s="17"/>
       <c r="E67" s="58" t="s">
@@ -21174,11 +21178,11 @@
         <v>87</v>
       </c>
       <c r="H67" s="17"/>
-      <c r="I67" s="266"/>
-      <c r="J67" s="266"/>
-      <c r="K67" s="266"/>
-      <c r="L67" s="266"/>
-      <c r="M67" s="266"/>
+      <c r="I67" s="283"/>
+      <c r="J67" s="283"/>
+      <c r="K67" s="283"/>
+      <c r="L67" s="283"/>
+      <c r="M67" s="283"/>
       <c r="N67" s="17"/>
       <c r="O67" s="17"/>
       <c r="P67" s="17"/>
@@ -21206,7 +21210,7 @@
       <c r="AL67" s="17"/>
       <c r="AM67" s="90"/>
     </row>
-    <row r="68" spans="1:45" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:45" ht="14" x14ac:dyDescent="0.3">
       <c r="A68" s="17"/>
       <c r="B68" s="130" t="s">
         <v>133</v>
@@ -21256,7 +21260,7 @@
       <c r="AM68" s="107"/>
       <c r="AN68" s="28"/>
     </row>
-    <row r="69" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A69" s="17"/>
       <c r="B69" s="84"/>
       <c r="C69" s="17"/>
@@ -21302,7 +21306,7 @@
       <c r="AM69" s="90"/>
       <c r="AN69" s="28"/>
     </row>
-    <row r="70" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A70" s="17"/>
       <c r="B70" s="78"/>
       <c r="C70" s="17"/>
@@ -21353,7 +21357,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A71" s="17"/>
       <c r="B71" s="78"/>
       <c r="C71" s="17"/>
@@ -21401,7 +21405,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A72" s="17"/>
       <c r="B72" s="78"/>
       <c r="C72" s="17"/>
@@ -21450,7 +21454,7 @@
       <c r="AM72" s="90"/>
       <c r="AN72" s="28"/>
     </row>
-    <row r="73" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A73" s="17"/>
       <c r="B73" s="78"/>
       <c r="C73" s="17"/>
@@ -21497,7 +21501,7 @@
       <c r="AM73" s="90"/>
       <c r="AN73" s="28"/>
     </row>
-    <row r="74" spans="1:45" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:45" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="17"/>
       <c r="B74" s="84"/>
       <c r="C74" s="17"/>
@@ -21545,7 +21549,7 @@
       <c r="AL74" s="17"/>
       <c r="AM74" s="90"/>
     </row>
-    <row r="75" spans="1:45" ht="12.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:45" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="17"/>
       <c r="B75" s="78"/>
       <c r="C75" s="17"/>
@@ -21593,7 +21597,7 @@
       <c r="AL75" s="17"/>
       <c r="AM75" s="90"/>
     </row>
-    <row r="76" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="17"/>
       <c r="B76" s="78"/>
       <c r="C76" s="17"/>
@@ -21640,7 +21644,7 @@
       <c r="AL76" s="17"/>
       <c r="AM76" s="90"/>
     </row>
-    <row r="77" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="B77" s="78"/>
       <c r="C77" s="17"/>
@@ -21688,7 +21692,7 @@
       <c r="AL77" s="17"/>
       <c r="AM77" s="90"/>
     </row>
-    <row r="78" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="17"/>
       <c r="B78" s="250" t="s">
         <v>133</v>
@@ -21736,7 +21740,7 @@
       <c r="AL78" s="17"/>
       <c r="AM78" s="90"/>
     </row>
-    <row r="79" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="17"/>
       <c r="B79" s="78"/>
       <c r="C79" s="17"/>
@@ -21781,7 +21785,7 @@
       <c r="AL79" s="17"/>
       <c r="AM79" s="90"/>
     </row>
-    <row r="80" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="17"/>
       <c r="B80" s="78"/>
       <c r="C80" s="17"/>
@@ -21829,7 +21833,7 @@
       <c r="AL80" s="17"/>
       <c r="AM80" s="90"/>
     </row>
-    <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="17"/>
       <c r="B81" s="78"/>
       <c r="C81" s="17"/>
@@ -21877,7 +21881,7 @@
       <c r="AL81" s="17"/>
       <c r="AM81" s="90"/>
     </row>
-    <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="17"/>
       <c r="B82" s="78"/>
       <c r="C82" s="17"/>
@@ -21924,7 +21928,7 @@
       <c r="AL82" s="17"/>
       <c r="AM82" s="90"/>
     </row>
-    <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="17"/>
       <c r="B83" s="78"/>
       <c r="C83" s="17"/>
@@ -21972,12 +21976,12 @@
       <c r="AL83" s="17"/>
       <c r="AM83" s="90"/>
     </row>
-    <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="17"/>
-      <c r="B84" s="275" t="s">
+      <c r="B84" s="268" t="s">
         <v>472</v>
       </c>
-      <c r="C84" s="264"/>
+      <c r="C84" s="269"/>
       <c r="D84" s="31"/>
       <c r="E84" s="29" t="s">
         <v>349</v>
@@ -22021,10 +22025,10 @@
       <c r="AL84" s="17"/>
       <c r="AM84" s="90"/>
     </row>
-    <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="17"/>
-      <c r="B85" s="275"/>
-      <c r="C85" s="264"/>
+      <c r="B85" s="268"/>
+      <c r="C85" s="269"/>
       <c r="D85" s="31"/>
       <c r="E85" s="29" t="s">
         <v>461</v>
@@ -22069,10 +22073,10 @@
       <c r="AL85" s="17"/>
       <c r="AM85" s="90"/>
     </row>
-    <row r="86" spans="1:40" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:40" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="17"/>
-      <c r="B86" s="275"/>
-      <c r="C86" s="264"/>
+      <c r="B86" s="268"/>
+      <c r="C86" s="269"/>
       <c r="D86" s="31"/>
       <c r="E86" s="29" t="s">
         <v>354</v>
@@ -22115,10 +22119,10 @@
       <c r="AL86" s="17"/>
       <c r="AM86" s="90"/>
     </row>
-    <row r="87" spans="1:40" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:40" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="17"/>
-      <c r="B87" s="275"/>
-      <c r="C87" s="264"/>
+      <c r="B87" s="268"/>
+      <c r="C87" s="269"/>
       <c r="D87" s="31"/>
       <c r="E87" s="29" t="s">
         <v>351</v>
@@ -22162,10 +22166,10 @@
       <c r="AL87" s="17"/>
       <c r="AM87" s="90"/>
     </row>
-    <row r="88" spans="1:40" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:40" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="17"/>
-      <c r="B88" s="275"/>
-      <c r="C88" s="264"/>
+      <c r="B88" s="268"/>
+      <c r="C88" s="269"/>
       <c r="D88" s="31"/>
       <c r="E88" s="29" t="s">
         <v>352</v>
@@ -22210,7 +22214,7 @@
       <c r="AL88" s="17"/>
       <c r="AM88" s="90"/>
     </row>
-    <row r="89" spans="1:40" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:40" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="17"/>
       <c r="B89" s="78"/>
       <c r="C89" s="17"/>
@@ -22257,7 +22261,7 @@
       <c r="AL89" s="17"/>
       <c r="AM89" s="90"/>
     </row>
-    <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="17"/>
       <c r="B90" s="78"/>
       <c r="C90" s="17"/>
@@ -22307,7 +22311,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="17"/>
       <c r="B91" s="78"/>
       <c r="C91" s="17"/>
@@ -22353,7 +22357,7 @@
       <c r="AL91" s="17"/>
       <c r="AM91" s="95"/>
     </row>
-    <row r="92" spans="1:40" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="17"/>
       <c r="B92" s="78"/>
       <c r="C92" s="17"/>
@@ -22401,7 +22405,7 @@
       <c r="AL92" s="17"/>
       <c r="AM92" s="90"/>
     </row>
-    <row r="93" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
       <c r="B93" s="78"/>
       <c r="C93" s="17"/>
@@ -22449,7 +22453,7 @@
       <c r="AL93" s="17"/>
       <c r="AM93" s="90"/>
     </row>
-    <row r="94" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
       <c r="B94" s="130" t="s">
         <v>211</v>
@@ -22499,7 +22503,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="17"/>
       <c r="B95" s="78"/>
       <c r="C95" s="17"/>
@@ -22549,7 +22553,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="17"/>
       <c r="B96" s="78"/>
       <c r="C96" s="17"/>
@@ -22599,7 +22603,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="97" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="17"/>
       <c r="B97" s="78"/>
       <c r="C97" s="17"/>
@@ -22649,7 +22653,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="98" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="17"/>
       <c r="B98" s="78"/>
       <c r="C98" s="17"/>
@@ -22696,7 +22700,7 @@
       <c r="AL98" s="17"/>
       <c r="AM98" s="90"/>
     </row>
-    <row r="99" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="17"/>
       <c r="B99" s="78"/>
       <c r="C99" s="17"/>
@@ -22744,7 +22748,7 @@
       <c r="AL99" s="17"/>
       <c r="AM99" s="90"/>
     </row>
-    <row r="100" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="17"/>
       <c r="B100" s="78"/>
       <c r="C100" s="17"/>
@@ -22792,7 +22796,7 @@
       <c r="AL100" s="17"/>
       <c r="AM100" s="90"/>
     </row>
-    <row r="101" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="17"/>
       <c r="B101" s="251" t="s">
         <v>211</v>
@@ -22842,7 +22846,7 @@
       <c r="AL101" s="17"/>
       <c r="AM101" s="90"/>
     </row>
-    <row r="102" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="17"/>
       <c r="B102" s="78"/>
       <c r="C102" s="17"/>
@@ -22890,7 +22894,7 @@
       <c r="AL102" s="17"/>
       <c r="AM102" s="90"/>
     </row>
-    <row r="103" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="17"/>
       <c r="B103" s="78"/>
       <c r="C103" s="17"/>
@@ -22937,7 +22941,7 @@
       <c r="AL103" s="17"/>
       <c r="AM103" s="90"/>
     </row>
-    <row r="104" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="17"/>
       <c r="B104" s="78"/>
       <c r="C104" s="17"/>
@@ -22984,7 +22988,7 @@
       <c r="AL104" s="17"/>
       <c r="AM104" s="90"/>
     </row>
-    <row r="105" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="17"/>
       <c r="B105" s="78"/>
       <c r="C105" s="17"/>
@@ -23031,7 +23035,7 @@
       <c r="AL105" s="17"/>
       <c r="AM105" s="90"/>
     </row>
-    <row r="106" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="17"/>
       <c r="B106" s="78"/>
       <c r="C106" s="17"/>
@@ -23078,7 +23082,7 @@
       <c r="AL106" s="17"/>
       <c r="AM106" s="90"/>
     </row>
-    <row r="107" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="17"/>
       <c r="B107" s="78"/>
       <c r="C107" s="17"/>
@@ -23119,7 +23123,7 @@
       <c r="AL107" s="17"/>
       <c r="AM107" s="90"/>
     </row>
-    <row r="108" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="17"/>
       <c r="B108" s="78"/>
       <c r="C108" s="91" t="s">
@@ -23168,7 +23172,7 @@
       <c r="AL108" s="17"/>
       <c r="AM108" s="90"/>
     </row>
-    <row r="109" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="17"/>
       <c r="B109" s="78"/>
       <c r="C109" s="32" t="s">
@@ -23222,7 +23226,7 @@
       <c r="AL109" s="17"/>
       <c r="AM109" s="90"/>
     </row>
-    <row r="110" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="17"/>
       <c r="B110" s="78"/>
       <c r="C110" s="32" t="s">
@@ -23276,7 +23280,7 @@
       <c r="AL110" s="17"/>
       <c r="AM110" s="90"/>
     </row>
-    <row r="111" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="17"/>
       <c r="B111" s="78"/>
       <c r="C111" s="32" t="s">
@@ -23330,7 +23334,7 @@
       <c r="AL111" s="17"/>
       <c r="AM111" s="90"/>
     </row>
-    <row r="112" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="17"/>
       <c r="B112" s="78"/>
       <c r="C112" s="32" t="s">
@@ -23384,16 +23388,16 @@
       <c r="AL112" s="17"/>
       <c r="AM112" s="90"/>
     </row>
-    <row r="113" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="17"/>
       <c r="B113" s="78"/>
-      <c r="C113" s="268" t="s">
+      <c r="C113" s="285" t="s">
         <v>433</v>
       </c>
-      <c r="D113" s="268"/>
-      <c r="E113" s="268"/>
-      <c r="F113" s="268"/>
-      <c r="G113" s="269"/>
+      <c r="D113" s="285"/>
+      <c r="E113" s="285"/>
+      <c r="F113" s="285"/>
+      <c r="G113" s="286"/>
       <c r="H113" s="31"/>
       <c r="I113" s="31"/>
       <c r="J113" s="17"/>
@@ -23427,14 +23431,14 @@
       <c r="AL113" s="17"/>
       <c r="AM113" s="90"/>
     </row>
-    <row r="114" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="17"/>
       <c r="B114" s="78"/>
-      <c r="C114" s="268"/>
-      <c r="D114" s="268"/>
-      <c r="E114" s="268"/>
-      <c r="F114" s="268"/>
-      <c r="G114" s="269"/>
+      <c r="C114" s="285"/>
+      <c r="D114" s="285"/>
+      <c r="E114" s="285"/>
+      <c r="F114" s="285"/>
+      <c r="G114" s="286"/>
       <c r="H114" s="31"/>
       <c r="I114" s="31"/>
       <c r="J114" s="17"/>
@@ -23468,14 +23472,14 @@
       <c r="AL114" s="17"/>
       <c r="AM114" s="90"/>
     </row>
-    <row r="115" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="17"/>
       <c r="B115" s="78"/>
-      <c r="C115" s="268"/>
-      <c r="D115" s="268"/>
-      <c r="E115" s="268"/>
-      <c r="F115" s="268"/>
-      <c r="G115" s="269"/>
+      <c r="C115" s="285"/>
+      <c r="D115" s="285"/>
+      <c r="E115" s="285"/>
+      <c r="F115" s="285"/>
+      <c r="G115" s="286"/>
       <c r="H115" s="31"/>
       <c r="I115" s="31"/>
       <c r="J115" s="17"/>
@@ -23509,7 +23513,7 @@
       <c r="AL115" s="17"/>
       <c r="AM115" s="90"/>
     </row>
-    <row r="116" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="17"/>
       <c r="B116" s="77"/>
       <c r="C116" s="17"/>
@@ -23555,7 +23559,7 @@
       <c r="AL116" s="17"/>
       <c r="AM116" s="90"/>
     </row>
-    <row r="117" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="17"/>
       <c r="B117" s="78"/>
       <c r="C117" s="17"/>
@@ -23596,7 +23600,7 @@
       <c r="AL117" s="17"/>
       <c r="AM117" s="90"/>
     </row>
-    <row r="118" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="17"/>
       <c r="B118" s="78"/>
       <c r="C118" s="17"/>
@@ -23637,7 +23641,7 @@
       <c r="AL118" s="17"/>
       <c r="AM118" s="90"/>
     </row>
-    <row r="119" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="17"/>
       <c r="B119" s="78"/>
       <c r="C119" s="17"/>
@@ -23678,7 +23682,7 @@
       <c r="AL119" s="17"/>
       <c r="AM119" s="90"/>
     </row>
-    <row r="120" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="17"/>
       <c r="B120" s="78"/>
       <c r="C120" s="80"/>
@@ -23719,7 +23723,7 @@
       <c r="AL120" s="80"/>
       <c r="AM120" s="94"/>
     </row>
-    <row r="121" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="17"/>
       <c r="B121" s="130" t="s">
         <v>214</v>
@@ -23769,7 +23773,7 @@
       <c r="AL121" s="75"/>
       <c r="AM121" s="107"/>
     </row>
-    <row r="122" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="17"/>
       <c r="B122" s="77"/>
       <c r="C122" s="17"/>
@@ -23817,7 +23821,7 @@
       <c r="AL122" s="31"/>
       <c r="AM122" s="131"/>
     </row>
-    <row r="123" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="17"/>
       <c r="B123" s="77"/>
       <c r="C123" s="17"/>
@@ -23865,7 +23869,7 @@
       <c r="AL123" s="31"/>
       <c r="AM123" s="131"/>
     </row>
-    <row r="124" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="17"/>
       <c r="B124" s="78"/>
       <c r="C124" s="17"/>
@@ -23917,7 +23921,7 @@
       <c r="AL124" s="113"/>
       <c r="AM124" s="114"/>
     </row>
-    <row r="125" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="17"/>
       <c r="B125" s="78"/>
       <c r="C125" s="17"/>
@@ -23972,7 +23976,7 @@
       <c r="AL125" s="17"/>
       <c r="AM125" s="95"/>
     </row>
-    <row r="126" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="17"/>
       <c r="B126" s="78"/>
       <c r="C126" s="17"/>
@@ -24027,7 +24031,7 @@
       <c r="AL126" s="17"/>
       <c r="AM126" s="95"/>
     </row>
-    <row r="127" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="17"/>
       <c r="B127" s="78"/>
       <c r="C127" s="17"/>
@@ -24082,7 +24086,7 @@
       <c r="AL127" s="17"/>
       <c r="AM127" s="95"/>
     </row>
-    <row r="128" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="17"/>
       <c r="B128" s="78"/>
       <c r="C128" s="17"/>
@@ -24137,7 +24141,7 @@
       <c r="AL128" s="17"/>
       <c r="AM128" s="95"/>
     </row>
-    <row r="129" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="17"/>
       <c r="B129" s="78"/>
       <c r="C129" s="17"/>
@@ -24192,7 +24196,7 @@
       <c r="AL129" s="17"/>
       <c r="AM129" s="95"/>
     </row>
-    <row r="130" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="17"/>
       <c r="B130" s="78"/>
       <c r="C130" s="17"/>
@@ -24247,7 +24251,7 @@
       <c r="AL130" s="17"/>
       <c r="AM130" s="95"/>
     </row>
-    <row r="131" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="17"/>
       <c r="B131" s="78"/>
       <c r="C131" s="17"/>
@@ -24301,7 +24305,7 @@
       <c r="AL131" s="17"/>
       <c r="AM131" s="95"/>
     </row>
-    <row r="132" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="17"/>
       <c r="B132" s="78"/>
       <c r="C132" s="17"/>
@@ -24353,7 +24357,7 @@
       <c r="AL132" s="17"/>
       <c r="AM132" s="95"/>
     </row>
-    <row r="133" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="17"/>
       <c r="B133" s="78"/>
       <c r="C133" s="17"/>
@@ -24406,7 +24410,7 @@
       <c r="AL133" s="17"/>
       <c r="AM133" s="95"/>
     </row>
-    <row r="134" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="17"/>
       <c r="B134" s="78"/>
       <c r="C134" s="17"/>
@@ -24458,7 +24462,7 @@
       <c r="AL134" s="17"/>
       <c r="AM134" s="95"/>
     </row>
-    <row r="135" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="17"/>
       <c r="B135" s="78"/>
       <c r="C135" s="17"/>
@@ -24511,7 +24515,7 @@
       <c r="AL135" s="17"/>
       <c r="AM135" s="95"/>
     </row>
-    <row r="136" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="17"/>
       <c r="B136" s="78"/>
       <c r="C136" s="17"/>
@@ -24556,7 +24560,7 @@
       <c r="AL136" s="17"/>
       <c r="AM136" s="95"/>
     </row>
-    <row r="137" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="17"/>
       <c r="B137" s="78"/>
       <c r="C137" s="17"/>
@@ -24596,7 +24600,7 @@
       <c r="AL137" s="17"/>
       <c r="AM137" s="95"/>
     </row>
-    <row r="138" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="17"/>
       <c r="B138" s="78"/>
       <c r="C138" s="17"/>
@@ -24638,7 +24642,7 @@
       <c r="AM138" s="90"/>
       <c r="AN138" s="28"/>
     </row>
-    <row r="139" spans="1:40" ht="15" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:40" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A139" s="17"/>
       <c r="B139" s="204" t="s">
         <v>18</v>
@@ -24684,7 +24688,7 @@
       <c r="AM139" s="90"/>
       <c r="AN139" s="28"/>
     </row>
-    <row r="140" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A140" s="17"/>
       <c r="B140" s="78"/>
       <c r="C140" s="30" t="s">
@@ -24727,7 +24731,7 @@
       <c r="AL140" s="17"/>
       <c r="AM140" s="90"/>
     </row>
-    <row r="141" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A141" s="17"/>
       <c r="B141" s="78"/>
       <c r="C141" s="30" t="s">
@@ -24770,7 +24774,7 @@
       <c r="AL141" s="17"/>
       <c r="AM141" s="90"/>
     </row>
-    <row r="142" spans="1:40" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:40" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="17"/>
       <c r="B142" s="79"/>
       <c r="C142" s="80"/>
@@ -24811,7 +24815,7 @@
       <c r="AL142" s="80"/>
       <c r="AM142" s="94"/>
     </row>
-    <row r="143" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A143" s="17"/>
       <c r="B143" s="17"/>
       <c r="C143" s="17"/>
@@ -24852,7 +24856,7 @@
       <c r="AL143" s="17"/>
       <c r="AM143" s="17"/>
     </row>
-    <row r="144" spans="1:40" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:40" ht="14" x14ac:dyDescent="0.3">
       <c r="A144" s="17"/>
       <c r="B144" s="37"/>
       <c r="C144" s="17"/>
@@ -24892,7 +24896,7 @@
       <c r="AL144" s="17"/>
       <c r="AM144" s="17"/>
     </row>
-    <row r="145" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A145" s="17"/>
       <c r="B145" s="17"/>
       <c r="C145" s="17"/>
@@ -24933,7 +24937,7 @@
       <c r="AL145" s="17"/>
       <c r="AM145" s="17"/>
     </row>
-    <row r="146" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A146" s="17"/>
       <c r="B146" s="17"/>
       <c r="C146" s="17"/>
@@ -24974,7 +24978,7 @@
       <c r="AL146" s="17"/>
       <c r="AM146" s="17"/>
     </row>
-    <row r="147" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A147" s="17"/>
       <c r="B147" s="17"/>
       <c r="C147" s="17"/>
@@ -25015,7 +25019,7 @@
       <c r="AL147" s="17"/>
       <c r="AM147" s="17"/>
     </row>
-    <row r="148" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A148" s="17"/>
       <c r="B148" s="17"/>
       <c r="C148" s="17"/>
@@ -25056,7 +25060,7 @@
       <c r="AL148" s="17"/>
       <c r="AM148" s="17"/>
     </row>
-    <row r="149" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A149" s="17"/>
       <c r="B149" s="17"/>
       <c r="C149" s="17"/>
@@ -25097,7 +25101,7 @@
       <c r="AL149" s="17"/>
       <c r="AM149" s="17"/>
     </row>
-    <row r="150" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A150" s="17"/>
       <c r="B150" s="17"/>
       <c r="C150" s="17"/>
@@ -25138,7 +25142,7 @@
       <c r="AL150" s="17"/>
       <c r="AM150" s="17"/>
     </row>
-    <row r="151" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A151" s="17"/>
       <c r="B151" s="17"/>
       <c r="C151" s="17"/>
@@ -25179,7 +25183,7 @@
       <c r="AL151" s="17"/>
       <c r="AM151" s="17"/>
     </row>
-    <row r="152" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A152" s="17"/>
       <c r="B152" s="17"/>
       <c r="C152" s="17"/>
@@ -25220,7 +25224,7 @@
       <c r="AL152" s="17"/>
       <c r="AM152" s="17"/>
     </row>
-    <row r="153" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A153" s="17"/>
       <c r="B153" s="17"/>
       <c r="C153" s="17"/>
@@ -25261,7 +25265,7 @@
       <c r="AL153" s="17"/>
       <c r="AM153" s="17"/>
     </row>
-    <row r="154" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A154" s="17"/>
       <c r="B154" s="17"/>
       <c r="C154" s="17"/>
@@ -25302,7 +25306,7 @@
       <c r="AL154" s="17"/>
       <c r="AM154" s="17"/>
     </row>
-    <row r="155" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A155" s="17"/>
       <c r="B155" s="17"/>
       <c r="C155" s="17"/>
@@ -25343,7 +25347,7 @@
       <c r="AL155" s="17"/>
       <c r="AM155" s="17"/>
     </row>
-    <row r="156" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A156" s="17"/>
       <c r="B156" s="17"/>
       <c r="C156" s="17"/>
@@ -25384,7 +25388,7 @@
       <c r="AL156" s="17"/>
       <c r="AM156" s="17"/>
     </row>
-    <row r="157" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A157" s="17"/>
       <c r="B157" s="17"/>
       <c r="C157" s="17"/>
@@ -25425,7 +25429,7 @@
       <c r="AL157" s="17"/>
       <c r="AM157" s="17"/>
     </row>
-    <row r="158" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A158" s="17"/>
       <c r="B158" s="17"/>
       <c r="C158" s="17"/>
@@ -25466,7 +25470,7 @@
       <c r="AL158" s="17"/>
       <c r="AM158" s="17"/>
     </row>
-    <row r="159" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A159" s="17"/>
       <c r="B159" s="17"/>
       <c r="C159" s="17"/>
@@ -25507,7 +25511,7 @@
       <c r="AL159" s="17"/>
       <c r="AM159" s="17"/>
     </row>
-    <row r="160" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A160" s="17"/>
       <c r="B160" s="17"/>
       <c r="C160" s="17"/>
@@ -25548,7 +25552,7 @@
       <c r="AL160" s="17"/>
       <c r="AM160" s="17"/>
     </row>
-    <row r="161" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A161" s="17"/>
       <c r="B161" s="17"/>
       <c r="C161" s="17"/>
@@ -25589,7 +25593,7 @@
       <c r="AL161" s="17"/>
       <c r="AM161" s="17"/>
     </row>
-    <row r="162" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A162" s="17"/>
       <c r="B162" s="17"/>
       <c r="C162" s="17"/>
@@ -25630,7 +25634,7 @@
       <c r="AL162" s="17"/>
       <c r="AM162" s="17"/>
     </row>
-    <row r="163" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A163" s="17"/>
       <c r="B163" s="17"/>
       <c r="C163" s="17"/>
@@ -25671,7 +25675,7 @@
       <c r="AL163" s="17"/>
       <c r="AM163" s="17"/>
     </row>
-    <row r="164" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A164" s="17"/>
       <c r="B164" s="17"/>
       <c r="C164" s="17"/>
@@ -25712,7 +25716,7 @@
       <c r="AL164" s="17"/>
       <c r="AM164" s="17"/>
     </row>
-    <row r="165" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A165" s="17"/>
       <c r="B165" s="17"/>
       <c r="C165" s="17"/>
@@ -25753,7 +25757,7 @@
       <c r="AL165" s="17"/>
       <c r="AM165" s="17"/>
     </row>
-    <row r="166" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A166" s="17"/>
       <c r="B166" s="17"/>
       <c r="C166" s="17"/>
@@ -25794,7 +25798,7 @@
       <c r="AL166" s="17"/>
       <c r="AM166" s="17"/>
     </row>
-    <row r="167" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A167" s="17"/>
       <c r="B167" s="17"/>
       <c r="C167" s="17"/>
@@ -25835,7 +25839,7 @@
       <c r="AL167" s="17"/>
       <c r="AM167" s="17"/>
     </row>
-    <row r="168" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A168" s="17"/>
       <c r="B168" s="17"/>
       <c r="C168" s="17"/>
@@ -25876,7 +25880,7 @@
       <c r="AL168" s="17"/>
       <c r="AM168" s="17"/>
     </row>
-    <row r="169" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A169" s="17"/>
       <c r="B169" s="17"/>
       <c r="C169" s="17"/>
@@ -25917,7 +25921,7 @@
       <c r="AL169" s="17"/>
       <c r="AM169" s="17"/>
     </row>
-    <row r="170" spans="1:39" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:39" ht="14" x14ac:dyDescent="0.3">
       <c r="A170" s="17"/>
       <c r="B170" s="38"/>
       <c r="C170" s="17"/>
@@ -25958,7 +25962,7 @@
       <c r="AL170" s="17"/>
       <c r="AM170" s="17"/>
     </row>
-    <row r="171" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A171" s="17"/>
       <c r="B171" s="17"/>
       <c r="C171" s="17"/>
@@ -25999,7 +26003,7 @@
       <c r="AL171" s="17"/>
       <c r="AM171" s="17"/>
     </row>
-    <row r="172" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A172" s="17"/>
       <c r="B172" s="17"/>
       <c r="C172" s="17"/>
@@ -26040,7 +26044,7 @@
       <c r="AL172" s="17"/>
       <c r="AM172" s="17"/>
     </row>
-    <row r="173" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A173" s="17"/>
       <c r="B173" s="17"/>
       <c r="C173" s="17"/>
@@ -26081,7 +26085,7 @@
       <c r="AL173" s="17"/>
       <c r="AM173" s="17"/>
     </row>
-    <row r="174" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A174" s="17"/>
       <c r="B174" s="17"/>
       <c r="C174" s="17"/>
@@ -26122,7 +26126,7 @@
       <c r="AL174" s="17"/>
       <c r="AM174" s="17"/>
     </row>
-    <row r="175" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A175" s="17"/>
       <c r="B175" s="17"/>
       <c r="D175" s="17"/>
@@ -26162,7 +26166,7 @@
       <c r="AL175" s="17"/>
       <c r="AM175" s="17"/>
     </row>
-    <row r="176" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A176" s="17"/>
       <c r="B176" s="17"/>
       <c r="C176" s="17"/>
@@ -26203,7 +26207,7 @@
       <c r="AL176" s="17"/>
       <c r="AM176" s="17"/>
     </row>
-    <row r="177" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A177" s="17"/>
       <c r="B177" s="17"/>
       <c r="C177" s="17"/>
@@ -26244,7 +26248,7 @@
       <c r="AL177" s="17"/>
       <c r="AM177" s="17"/>
     </row>
-    <row r="178" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A178" s="17"/>
       <c r="B178" s="17"/>
       <c r="C178" s="17"/>
@@ -26285,7 +26289,7 @@
       <c r="AL178" s="17"/>
       <c r="AM178" s="17"/>
     </row>
-    <row r="179" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A179" s="17"/>
       <c r="B179" s="17"/>
       <c r="C179" s="17"/>
@@ -26326,7 +26330,7 @@
       <c r="AL179" s="17"/>
       <c r="AM179" s="17"/>
     </row>
-    <row r="180" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A180" s="17"/>
       <c r="B180" s="17"/>
       <c r="C180" s="17"/>
@@ -26367,7 +26371,7 @@
       <c r="AL180" s="17"/>
       <c r="AM180" s="17"/>
     </row>
-    <row r="181" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A181" s="17"/>
       <c r="B181" s="17"/>
       <c r="C181" s="17"/>
@@ -26408,7 +26412,7 @@
       <c r="AL181" s="17"/>
       <c r="AM181" s="17"/>
     </row>
-    <row r="182" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A182" s="17"/>
       <c r="B182" s="17"/>
       <c r="C182" s="17"/>
@@ -26449,7 +26453,7 @@
       <c r="AL182" s="17"/>
       <c r="AM182" s="17"/>
     </row>
-    <row r="183" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A183" s="17"/>
       <c r="B183" s="17"/>
       <c r="C183" s="17"/>
@@ -26490,7 +26494,7 @@
       <c r="AL183" s="17"/>
       <c r="AM183" s="17"/>
     </row>
-    <row r="184" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A184" s="17"/>
       <c r="B184" s="17"/>
       <c r="C184" s="17"/>
@@ -26531,7 +26535,7 @@
       <c r="AL184" s="17"/>
       <c r="AM184" s="17"/>
     </row>
-    <row r="185" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A185" s="17"/>
       <c r="B185" s="17"/>
       <c r="C185" s="17"/>
@@ -26572,7 +26576,7 @@
       <c r="AL185" s="17"/>
       <c r="AM185" s="17"/>
     </row>
-    <row r="186" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A186" s="17"/>
       <c r="B186" s="17"/>
       <c r="C186" s="17"/>
@@ -26613,7 +26617,7 @@
       <c r="AL186" s="17"/>
       <c r="AM186" s="17"/>
     </row>
-    <row r="187" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A187" s="17"/>
       <c r="B187" s="17"/>
       <c r="C187" s="17"/>
@@ -26654,7 +26658,7 @@
       <c r="AL187" s="17"/>
       <c r="AM187" s="17"/>
     </row>
-    <row r="188" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A188" s="17"/>
       <c r="B188" s="17"/>
       <c r="C188" s="17"/>
@@ -26695,7 +26699,7 @@
       <c r="AL188" s="17"/>
       <c r="AM188" s="17"/>
     </row>
-    <row r="189" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A189" s="17"/>
       <c r="B189" s="17"/>
       <c r="C189" s="17"/>
@@ -26736,7 +26740,7 @@
       <c r="AL189" s="17"/>
       <c r="AM189" s="17"/>
     </row>
-    <row r="190" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A190" s="17"/>
       <c r="B190" s="17"/>
       <c r="C190" s="17"/>
@@ -26777,7 +26781,7 @@
       <c r="AL190" s="17"/>
       <c r="AM190" s="17"/>
     </row>
-    <row r="191" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A191" s="17"/>
       <c r="B191" s="17"/>
       <c r="C191" s="17"/>
@@ -26818,7 +26822,7 @@
       <c r="AL191" s="17"/>
       <c r="AM191" s="17"/>
     </row>
-    <row r="192" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A192" s="17"/>
       <c r="B192" s="17"/>
       <c r="C192" s="17"/>
@@ -26859,7 +26863,7 @@
       <c r="AL192" s="17"/>
       <c r="AM192" s="17"/>
     </row>
-    <row r="193" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A193" s="17"/>
       <c r="B193" s="17"/>
       <c r="C193" s="17"/>
@@ -26900,7 +26904,7 @@
       <c r="AL193" s="17"/>
       <c r="AM193" s="17"/>
     </row>
-    <row r="194" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A194" s="17"/>
       <c r="B194" s="17"/>
       <c r="C194" s="17"/>
@@ -26941,7 +26945,7 @@
       <c r="AL194" s="17"/>
       <c r="AM194" s="17"/>
     </row>
-    <row r="195" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A195" s="17"/>
       <c r="B195" s="17"/>
       <c r="C195" s="17"/>
@@ -26982,7 +26986,7 @@
       <c r="AL195" s="17"/>
       <c r="AM195" s="17"/>
     </row>
-    <row r="196" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A196" s="17"/>
       <c r="B196" s="17"/>
       <c r="C196" s="17"/>
@@ -27023,7 +27027,7 @@
       <c r="AL196" s="17"/>
       <c r="AM196" s="17"/>
     </row>
-    <row r="197" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A197" s="17"/>
       <c r="B197" s="17"/>
       <c r="C197" s="17"/>
@@ -27064,7 +27068,7 @@
       <c r="AL197" s="17"/>
       <c r="AM197" s="17"/>
     </row>
-    <row r="198" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A198" s="17"/>
       <c r="B198" s="17"/>
       <c r="C198" s="17"/>
@@ -27105,7 +27109,7 @@
       <c r="AL198" s="17"/>
       <c r="AM198" s="17"/>
     </row>
-    <row r="199" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A199" s="17"/>
       <c r="B199" s="17"/>
       <c r="C199" s="17"/>
@@ -27146,7 +27150,7 @@
       <c r="AL199" s="17"/>
       <c r="AM199" s="17"/>
     </row>
-    <row r="200" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A200" s="17"/>
       <c r="B200" s="17"/>
       <c r="C200" s="17"/>
@@ -27187,7 +27191,7 @@
       <c r="AL200" s="17"/>
       <c r="AM200" s="17"/>
     </row>
-    <row r="201" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A201" s="17"/>
       <c r="B201" s="17"/>
       <c r="C201" s="17"/>
@@ -27228,7 +27232,7 @@
       <c r="AL201" s="17"/>
       <c r="AM201" s="17"/>
     </row>
-    <row r="202" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A202" s="17"/>
       <c r="B202" s="17"/>
       <c r="C202" s="17"/>
@@ -27269,7 +27273,7 @@
       <c r="AL202" s="17"/>
       <c r="AM202" s="17"/>
     </row>
-    <row r="203" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A203" s="17"/>
       <c r="B203" s="17"/>
       <c r="C203" s="17"/>
@@ -27310,7 +27314,7 @@
       <c r="AL203" s="17"/>
       <c r="AM203" s="17"/>
     </row>
-    <row r="204" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A204" s="17"/>
       <c r="B204" s="17"/>
       <c r="C204" s="17"/>
@@ -27351,7 +27355,7 @@
       <c r="AL204" s="17"/>
       <c r="AM204" s="17"/>
     </row>
-    <row r="205" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A205" s="17"/>
       <c r="B205" s="17"/>
       <c r="C205" s="17"/>
@@ -27392,7 +27396,7 @@
       <c r="AL205" s="17"/>
       <c r="AM205" s="17"/>
     </row>
-    <row r="206" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A206" s="17"/>
       <c r="B206" s="17"/>
       <c r="C206" s="17"/>
@@ -27433,7 +27437,7 @@
       <c r="AL206" s="17"/>
       <c r="AM206" s="17"/>
     </row>
-    <row r="207" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A207" s="17"/>
       <c r="B207" s="17"/>
       <c r="C207" s="17"/>
@@ -27474,7 +27478,7 @@
       <c r="AL207" s="17"/>
       <c r="AM207" s="17"/>
     </row>
-    <row r="208" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A208" s="17"/>
       <c r="B208" s="17"/>
       <c r="C208" s="17"/>
@@ -27515,7 +27519,7 @@
       <c r="AL208" s="17"/>
       <c r="AM208" s="17"/>
     </row>
-    <row r="209" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A209" s="17"/>
       <c r="B209" s="17"/>
       <c r="C209" s="17"/>
@@ -27556,7 +27560,7 @@
       <c r="AL209" s="17"/>
       <c r="AM209" s="17"/>
     </row>
-    <row r="210" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A210" s="17"/>
       <c r="B210" s="17"/>
       <c r="C210" s="17"/>
@@ -27597,7 +27601,7 @@
       <c r="AL210" s="17"/>
       <c r="AM210" s="17"/>
     </row>
-    <row r="211" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A211" s="17"/>
       <c r="B211" s="17"/>
       <c r="C211" s="17"/>
@@ -27638,7 +27642,7 @@
       <c r="AL211" s="17"/>
       <c r="AM211" s="17"/>
     </row>
-    <row r="212" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A212" s="17"/>
       <c r="B212" s="17"/>
       <c r="C212" s="17"/>
@@ -27679,7 +27683,7 @@
       <c r="AL212" s="17"/>
       <c r="AM212" s="17"/>
     </row>
-    <row r="213" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A213" s="17"/>
       <c r="B213" s="17"/>
       <c r="C213" s="17"/>
@@ -27720,7 +27724,7 @@
       <c r="AL213" s="17"/>
       <c r="AM213" s="17"/>
     </row>
-    <row r="214" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A214" s="17"/>
       <c r="B214" s="17"/>
       <c r="C214" s="17"/>
@@ -27764,6 +27768,9 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="18">
+    <mergeCell ref="AS59:AS65"/>
+    <mergeCell ref="B61:B67"/>
+    <mergeCell ref="C113:G115"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="D11:E12"/>
@@ -27779,9 +27786,6 @@
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="I66:M67"/>
-    <mergeCell ref="AS59:AS65"/>
-    <mergeCell ref="B61:B67"/>
-    <mergeCell ref="C113:G115"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B61:B67">
@@ -27793,69 +27797,69 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:AO60 C61:AO65 C66:I66 N66:AO67 C67:H67 B68:AO142">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="34" priority="5">
       <formula>$G$23="No"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="33" priority="6">
       <formula>$G$22="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D109:F112">
-    <cfRule type="cellIs" dxfId="34" priority="74" stopIfTrue="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="32" priority="74" stopIfTrue="1" operator="notBetween">
       <formula>10</formula>
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="expression" dxfId="33" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="68" stopIfTrue="1">
       <formula>F94="Option A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="expression" dxfId="32" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="71" stopIfTrue="1">
       <formula>F94="Option A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="expression" dxfId="31" priority="59">
+    <cfRule type="expression" dxfId="29" priority="59">
       <formula>F94="Option A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71:F71">
-    <cfRule type="expression" dxfId="30" priority="76">
+    <cfRule type="expression" dxfId="28" priority="76">
       <formula>#REF!="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G44">
-    <cfRule type="expression" dxfId="29" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="11" stopIfTrue="1">
       <formula>IF($F$38="No", "TRUE", "FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72:G78">
-    <cfRule type="expression" dxfId="28" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="22" stopIfTrue="1">
       <formula>$F$71="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79:G79 D80:G91 B84">
-    <cfRule type="expression" dxfId="27" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="8" stopIfTrue="1">
       <formula>$F$71="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="26" priority="72" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="72" stopIfTrue="1" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40:F41">
-    <cfRule type="cellIs" dxfId="25" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="39" operator="equal">
       <formula>"""NA"""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="33" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:F47">
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="10" operator="lessThan">
       <formula>$F$30</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27872,106 +27876,106 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64">
-    <cfRule type="cellIs" dxfId="22" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="lessThan">
       <formula>$F$63</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="21" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="lessThan">
       <formula>$F$63</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73">
-    <cfRule type="cellIs" dxfId="20" priority="78" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="78" operator="lessThan">
       <formula>0.25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76">
-    <cfRule type="cellIs" dxfId="19" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="29" operator="lessThan">
       <formula>$F$75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78">
-    <cfRule type="cellIs" dxfId="18" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="26" operator="lessThan">
       <formula>1.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="27" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="27" operator="between">
       <formula>1.1</formula>
       <formula>1.3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79">
-    <cfRule type="expression" dxfId="16" priority="14">
+    <cfRule type="expression" dxfId="14" priority="14">
       <formula>#REF!="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80:F81">
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="NA">
+    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",F80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F82 F85">
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="greaterThanOrEqual">
       <formula>$F$80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F86 F91">
-    <cfRule type="cellIs" dxfId="13" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="19" operator="lessThan">
       <formula>1.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F86">
-    <cfRule type="cellIs" dxfId="12" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="between">
       <formula>1.1</formula>
       <formula>1.499999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F91">
-    <cfRule type="cellIs" dxfId="11" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="16" operator="between">
       <formula>1.1</formula>
       <formula>1.299999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96">
-    <cfRule type="cellIs" dxfId="10" priority="65" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="65" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>F95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F102">
-    <cfRule type="expression" dxfId="9" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="69" stopIfTrue="1">
       <formula>F94="Option A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54:G60">
-    <cfRule type="expression" dxfId="8" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
       <formula>IF($F$51="Custom", "FALSE", "TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G82 G84:G89">
-    <cfRule type="expression" dxfId="7" priority="24">
+    <cfRule type="expression" dxfId="5" priority="24">
       <formula>#REF!="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G98">
-    <cfRule type="expression" dxfId="6" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="67" stopIfTrue="1">
       <formula>F94="Option A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G102">
-    <cfRule type="expression" dxfId="5" priority="62">
+    <cfRule type="expression" dxfId="3" priority="62">
       <formula>F94="Option A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G106">
-    <cfRule type="expression" dxfId="4" priority="61">
+    <cfRule type="expression" dxfId="2" priority="61">
       <formula>F94="Option A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS59:AS65">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>$G$22="No"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>$G$23="No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28128,15 +28132,15 @@
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.3984375" customWidth="1"/>
-    <col min="2" max="2" width="24.265625" customWidth="1"/>
-    <col min="3" max="3" width="9.1328125" customWidth="1"/>
-    <col min="12" max="12" width="13.59765625" customWidth="1"/>
+    <col min="1" max="1" width="9.36328125" customWidth="1"/>
+    <col min="2" max="2" width="24.26953125" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" customWidth="1"/>
+    <col min="12" max="12" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="C2" s="28" t="s">
         <v>71</v>
@@ -28151,7 +28155,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>155</v>
       </c>
@@ -28159,7 +28163,7 @@
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
     </row>
-    <row r="4" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="28" t="s">
         <v>166</v>
@@ -28172,7 +28176,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" s="29" t="s">
         <v>156</v>
       </c>
@@ -28188,7 +28192,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>132</v>
       </c>
@@ -28198,14 +28202,14 @@
       <c r="E6" s="1"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="29"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
       <c r="C8" s="1">
         <v>48.5</v>
@@ -28218,7 +28222,7 @@
       </c>
       <c r="J8" s="29"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" s="29" t="s">
         <v>157</v>
       </c>
@@ -28232,12 +28236,12 @@
       </c>
       <c r="J9" s="29"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>168</v>
       </c>
@@ -28245,7 +28249,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="28" t="s">
         <v>264</v>
       </c>
@@ -28258,7 +28262,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" s="28" t="s">
         <v>265</v>
       </c>
@@ -28274,7 +28278,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" s="28" t="s">
         <v>267</v>
       </c>
@@ -28285,14 +28289,14 @@
       </c>
       <c r="F14" s="28"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="28"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="134"/>
       <c r="F15" s="28"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="28" t="s">
         <v>274</v>
       </c>
@@ -28327,7 +28331,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B17" s="28"/>
       <c r="C17" s="133" t="s">
         <v>471</v>
@@ -28361,7 +28365,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B18" s="28"/>
       <c r="C18" s="133" t="s">
         <v>470</v>
@@ -28388,7 +28392,7 @@
         <v>3.3343333333333337E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B19" s="28" t="s">
         <v>275</v>
       </c>
@@ -28400,12 +28404,12 @@
       <c r="M19" s="136"/>
       <c r="N19" s="135"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" ht="13" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>161</v>
       </c>
@@ -28413,7 +28417,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B22" s="29" t="s">
         <v>162</v>
       </c>
@@ -28430,7 +28434,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B23" s="29" t="s">
         <v>163</v>
       </c>
@@ -28447,7 +28451,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>363</v>
       </c>
@@ -28456,7 +28460,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="28"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B25" s="29" t="s">
         <v>164</v>
       </c>
@@ -28473,7 +28477,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B26" s="29" t="s">
         <v>300</v>
       </c>
@@ -28488,7 +28492,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B27" s="29" t="s">
         <v>297</v>
       </c>
@@ -28502,13 +28506,13 @@
         <v>298</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" ht="13" x14ac:dyDescent="0.3">
       <c r="A29" s="23" t="s">
         <v>196</v>
       </c>
@@ -28517,7 +28521,7 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B30" s="29" t="s">
         <v>200</v>
       </c>
@@ -28531,13 +28535,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" ht="13" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
         <v>160</v>
       </c>
@@ -28549,7 +28553,7 @@
       <c r="G32" s="287"/>
       <c r="H32" s="287"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="29"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -28558,7 +28562,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="29"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -28567,7 +28571,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" s="29"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -28576,7 +28580,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="29"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -28585,19 +28589,19 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A38" s="23" t="s">
         <v>232</v>
       </c>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="29" t="s">
         <v>162</v>
       </c>
@@ -28611,7 +28615,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="29" t="s">
         <v>233</v>
       </c>
@@ -28625,7 +28629,7 @@
         <v>1.3129999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="29" t="s">
         <v>234</v>
       </c>
@@ -28633,7 +28637,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="29" t="s">
         <v>235</v>
       </c>
@@ -28641,7 +28645,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="29" t="s">
         <v>236</v>
       </c>
@@ -28655,7 +28659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="29" t="s">
         <v>237</v>
       </c>
@@ -28669,7 +28673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="29" t="s">
         <v>164</v>
       </c>
@@ -28683,7 +28687,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="29" t="s">
         <v>238</v>
       </c>
@@ -28697,12 +28701,12 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A48" s="23" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B49" s="29" t="s">
         <v>243</v>
       </c>
@@ -28722,12 +28726,12 @@
         <v>244</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A50" s="23" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" s="28" t="s">
         <v>246</v>
       </c>
@@ -28744,7 +28748,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B52" s="28" t="s">
         <v>247</v>
       </c>
@@ -28780,23 +28784,23 @@
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="12.73046875" customWidth="1"/>
-    <col min="10" max="10" width="11.73046875" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" customWidth="1"/>
+    <col min="10" max="10" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:6" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>207</v>
       </c>
@@ -28808,7 +28812,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>206</v>
       </c>
@@ -28820,7 +28824,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>205</v>
       </c>
@@ -28832,14 +28836,14 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="23"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" s="2" t="s">
         <v>0</v>
       </c>
@@ -28848,7 +28852,7 @@
         <v>1.6558552406964835</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E21" s="29" t="s">
         <v>208</v>
       </c>
@@ -28857,7 +28861,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E22" s="29" t="s">
         <v>209</v>
       </c>
@@ -28866,7 +28870,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E23" s="29" t="s">
         <v>210</v>
       </c>
@@ -28876,7 +28880,7 @@
       </c>
       <c r="H23" s="119"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E24" s="2" t="s">
         <v>1</v>
       </c>
@@ -28886,7 +28890,7 @@
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E25" s="2" t="s">
         <v>2</v>
       </c>
@@ -28895,7 +28899,7 @@
         <v>36.666666666666664</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E26" s="2" t="s">
         <v>3</v>
       </c>
@@ -28904,7 +28908,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E27" s="2" t="s">
         <v>4</v>
       </c>
@@ -28913,15 +28917,15 @@
         <v>2521.5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:8" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
       <c r="F32" s="28" t="s">
         <v>153</v>
@@ -28930,7 +28934,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
       <c r="E33" s="32" t="s">
         <v>128</v>
@@ -28947,7 +28951,7 @@
         <v>283.50252</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="28"/>
       <c r="E34" s="32" t="s">
         <v>129</v>
@@ -28964,7 +28968,7 @@
         <v>240.97714200000001</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="28"/>
       <c r="E35" s="32" t="s">
         <v>130</v>
@@ -28981,7 +28985,7 @@
         <v>8.5050755999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="28"/>
       <c r="E36" s="32" t="s">
         <v>131</v>
@@ -28998,13 +29002,13 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
       <c r="E37" s="29"/>
       <c r="F37" s="66"/>
       <c r="G37" s="28"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
       <c r="E38" s="29" t="s">
         <v>170</v>
@@ -29017,7 +29021,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="28"/>
       <c r="E39" s="29" t="s">
         <v>280</v>
@@ -29030,7 +29034,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="28"/>
       <c r="E40" s="29" t="s">
         <v>270</v>
@@ -29043,7 +29047,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="28"/>
       <c r="E41" s="29" t="s">
         <v>283</v>
@@ -29056,7 +29060,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="28"/>
       <c r="E42" s="29" t="s">
         <v>284</v>
@@ -29069,22 +29073,22 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
       <c r="E43" s="29"/>
       <c r="G43" s="28"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="E44" s="29"/>
       <c r="G44" s="28"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="E45" s="29"/>
       <c r="G45" s="28"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E46" s="2" t="s">
         <v>5</v>
       </c>
@@ -29096,7 +29100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E47" s="2" t="s">
         <v>6</v>
       </c>
@@ -29105,7 +29109,7 @@
         <v>86.399999999999991</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E48" s="2" t="s">
         <v>7</v>
       </c>
@@ -29114,7 +29118,7 @@
         <v>107.136</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E49" s="2"/>
       <c r="F49" s="1"/>
       <c r="H49" s="2"/>
@@ -29122,7 +29126,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="1"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E50" s="2"/>
       <c r="F50" s="1"/>
       <c r="H50" s="2"/>
@@ -29130,12 +29134,12 @@
       <c r="K50" s="2"/>
       <c r="L50" s="1"/>
     </row>
-    <row r="51" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A51" s="23" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A52" s="23"/>
       <c r="D52" s="288" t="s">
         <v>323</v>
@@ -29144,7 +29148,7 @@
       <c r="F52" s="289"/>
       <c r="G52" s="289"/>
     </row>
-    <row r="53" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A53" s="23"/>
       <c r="E53" s="29" t="s">
         <v>303</v>
@@ -29157,7 +29161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A54" s="23"/>
       <c r="E54" s="29" t="s">
         <v>304</v>
@@ -29167,7 +29171,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A55" s="23"/>
       <c r="E55" s="29" t="s">
         <v>305</v>
@@ -29180,7 +29184,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A56" s="23"/>
       <c r="E56" s="29" t="s">
         <v>306</v>
@@ -29193,7 +29197,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A57" s="23"/>
       <c r="E57" s="29" t="s">
         <v>307</v>
@@ -29206,7 +29210,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A58" s="23"/>
       <c r="E58" s="29" t="s">
         <v>310</v>
@@ -29219,7 +29223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A59" s="23"/>
       <c r="E59" s="29" t="s">
         <v>318</v>
@@ -29230,7 +29234,7 @@
       </c>
       <c r="G59" s="28"/>
     </row>
-    <row r="60" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A60" s="23"/>
       <c r="D60" s="288" t="s">
         <v>327</v>
@@ -29239,7 +29243,7 @@
       <c r="F60" s="289"/>
       <c r="G60" s="289"/>
     </row>
-    <row r="61" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A61" s="23"/>
       <c r="C61" s="28"/>
       <c r="D61" s="180"/>
@@ -29254,7 +29258,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A62" s="23"/>
       <c r="C62" s="28"/>
       <c r="D62" s="180"/>
@@ -29269,7 +29273,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A63" s="23"/>
       <c r="C63" s="28"/>
       <c r="D63" s="180"/>
@@ -29284,7 +29288,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A64" s="23"/>
       <c r="C64" s="28"/>
       <c r="D64" s="180"/>
@@ -29299,7 +29303,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A65" s="23"/>
       <c r="C65" s="28"/>
       <c r="D65" s="180"/>
@@ -29314,7 +29318,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A66" s="23"/>
       <c r="C66" s="28"/>
       <c r="D66" s="180"/>
@@ -29329,7 +29333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A67" s="23"/>
       <c r="C67" s="28"/>
       <c r="D67" s="180"/>
@@ -29344,7 +29348,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A68" s="23"/>
       <c r="C68" s="28"/>
       <c r="D68" s="180"/>
@@ -29359,7 +29363,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A69" s="23"/>
       <c r="D69" s="181"/>
       <c r="E69" s="29" t="s">
@@ -29373,7 +29377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A70" s="23"/>
       <c r="E70" s="29" t="s">
         <v>345</v>
@@ -29386,7 +29390,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A71" s="23"/>
       <c r="E71" s="29" t="s">
         <v>346</v>
@@ -29397,13 +29401,13 @@
       </c>
       <c r="G71" s="28"/>
     </row>
-    <row r="72" spans="1:8" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A72" s="23"/>
       <c r="E72" s="29"/>
       <c r="F72" s="28"/>
       <c r="G72" s="28"/>
     </row>
-    <row r="73" spans="1:8" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A73" s="23"/>
       <c r="E73" s="29"/>
       <c r="F73" s="28">
@@ -29413,7 +29417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A74" s="23"/>
       <c r="D74" s="290" t="s">
         <v>355</v>
@@ -29423,7 +29427,7 @@
       <c r="G74" s="290"/>
       <c r="H74" s="290"/>
     </row>
-    <row r="75" spans="1:8" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A75" s="23"/>
       <c r="E75" s="29" t="s">
         <v>351</v>
@@ -29434,7 +29438,7 @@
       </c>
       <c r="G75" s="28"/>
     </row>
-    <row r="76" spans="1:8" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A76" s="23"/>
       <c r="E76" s="29" t="s">
         <v>352</v>
@@ -29447,7 +29451,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A77" s="23"/>
       <c r="E77" s="29" t="s">
         <v>353</v>
@@ -29460,7 +29464,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A78" s="23"/>
       <c r="E78" s="29" t="s">
         <v>358</v>
@@ -29473,7 +29477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A79" s="23"/>
       <c r="E79" s="29" t="s">
         <v>357</v>
@@ -29486,7 +29490,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A80" s="23"/>
       <c r="E80" s="29" t="s">
         <v>346</v>
@@ -29497,96 +29501,96 @@
       </c>
       <c r="G80" s="28"/>
     </row>
-    <row r="81" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:13" ht="13" x14ac:dyDescent="0.3">
       <c r="A81" s="23"/>
       <c r="E81" s="29"/>
       <c r="F81" s="28"/>
       <c r="G81" s="28"/>
     </row>
-    <row r="82" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:13" ht="13" x14ac:dyDescent="0.3">
       <c r="A82" s="23"/>
       <c r="E82" s="29"/>
       <c r="F82" s="28"/>
       <c r="G82" s="28"/>
     </row>
-    <row r="83" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:13" ht="13" x14ac:dyDescent="0.3">
       <c r="A83" s="23"/>
       <c r="E83" s="29"/>
       <c r="F83" s="28"/>
       <c r="G83" s="28"/>
     </row>
-    <row r="84" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:13" ht="13" x14ac:dyDescent="0.3">
       <c r="A84" s="23"/>
       <c r="E84" s="29"/>
       <c r="F84" s="28"/>
       <c r="G84" s="28"/>
     </row>
-    <row r="85" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:13" ht="13" x14ac:dyDescent="0.3">
       <c r="A85" s="23"/>
       <c r="E85" s="29"/>
       <c r="F85" s="28"/>
       <c r="G85" s="28"/>
     </row>
-    <row r="86" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:13" ht="13" x14ac:dyDescent="0.3">
       <c r="A86" s="23"/>
       <c r="E86" s="29"/>
       <c r="F86" s="28"/>
       <c r="G86" s="28"/>
     </row>
-    <row r="87" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:13" ht="13" x14ac:dyDescent="0.3">
       <c r="A87" s="23"/>
       <c r="E87" s="29"/>
       <c r="F87" s="28"/>
       <c r="G87" s="28"/>
     </row>
-    <row r="88" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:13" ht="13" x14ac:dyDescent="0.3">
       <c r="A88" s="23"/>
       <c r="E88" s="29"/>
       <c r="F88" s="28"/>
       <c r="G88" s="28"/>
     </row>
-    <row r="89" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:13" ht="13" x14ac:dyDescent="0.3">
       <c r="A89" s="23"/>
       <c r="F89" s="28"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="28"/>
       <c r="E90" s="29"/>
       <c r="F90" s="28"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="28"/>
       <c r="E91" s="29"/>
       <c r="F91" s="28"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D92" s="28"/>
       <c r="E92" s="29"/>
       <c r="F92" s="28"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D93" s="28"/>
       <c r="E93" s="29"/>
       <c r="F93" s="28"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D94" s="28"/>
       <c r="E94" s="29"/>
       <c r="F94" s="28"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E95" s="29"/>
       <c r="F95" s="28"/>
       <c r="J95" s="5"/>
       <c r="M95" s="5"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E96" s="29"/>
       <c r="F96" s="28"/>
       <c r="J96" s="5"/>
       <c r="M96" s="5"/>
     </row>
-    <row r="97" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E97" s="2"/>
       <c r="F97" s="28"/>
       <c r="G97" t="s">
@@ -29595,17 +29599,17 @@
       <c r="J97" s="6"/>
       <c r="M97" s="6"/>
     </row>
-    <row r="98" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E98" s="29"/>
       <c r="F98" s="28"/>
       <c r="J98" s="6"/>
       <c r="M98" s="6"/>
     </row>
-    <row r="99" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E99" s="2"/>
       <c r="F99" s="28"/>
     </row>
-    <row r="100" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E100" s="2"/>
       <c r="F100" s="28"/>
       <c r="I100" t="s">
@@ -29615,36 +29619,36 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E101" s="29"/>
       <c r="F101" s="28"/>
       <c r="G101" s="28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E102" s="29"/>
       <c r="F102" s="28"/>
       <c r="G102" s="28" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="103" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E103" s="29"/>
       <c r="F103" s="28"/>
       <c r="G103" s="28" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="104" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E104" s="29"/>
       <c r="G104" s="28"/>
     </row>
-    <row r="105" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E105" s="29"/>
       <c r="G105" s="28"/>
     </row>
-    <row r="106" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E106" s="29" t="s">
         <v>229</v>
       </c>
@@ -29656,7 +29660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E107" s="29" t="s">
         <v>9</v>
       </c>
@@ -29668,7 +29672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E108" s="29" t="s">
         <v>230</v>
       </c>
@@ -29680,7 +29684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E109" s="29" t="s">
         <v>231</v>
       </c>
@@ -29704,7 +29708,7 @@
         <v>0.3548</v>
       </c>
     </row>
-    <row r="110" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E110" s="29" t="s">
         <v>10</v>
       </c>
@@ -29728,7 +29732,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="111" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E111" s="29" t="s">
         <v>251</v>
       </c>
@@ -29752,7 +29756,7 @@
         <v>0.40519999999999995</v>
       </c>
     </row>
-    <row r="112" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E112" s="29" t="s">
         <v>250</v>
       </c>
@@ -29762,7 +29766,7 @@
       </c>
       <c r="G112" s="28"/>
     </row>
-    <row r="113" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="4:12" x14ac:dyDescent="0.25">
       <c r="E113" s="29" t="s">
         <v>249</v>
       </c>
@@ -29772,7 +29776,7 @@
       </c>
       <c r="G113" s="28"/>
     </row>
-    <row r="114" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="4:12" x14ac:dyDescent="0.25">
       <c r="E114" s="29" t="s">
         <v>248</v>
       </c>
@@ -29781,7 +29785,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="115" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="4:12" x14ac:dyDescent="0.25">
       <c r="E115" s="29" t="s">
         <v>252</v>
       </c>
@@ -29790,7 +29794,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="116" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="4:12" x14ac:dyDescent="0.25">
       <c r="E116" s="29" t="s">
         <v>253</v>
       </c>
@@ -29799,7 +29803,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="117" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="4:12" x14ac:dyDescent="0.25">
       <c r="E117" s="29" t="s">
         <v>254</v>
       </c>
@@ -29808,13 +29812,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="118" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="4:12" x14ac:dyDescent="0.25">
       <c r="E118" s="29"/>
     </row>
-    <row r="119" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="4:12" x14ac:dyDescent="0.25">
       <c r="E119" s="29"/>
     </row>
-    <row r="120" spans="4:12" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="120" spans="4:12" ht="13" x14ac:dyDescent="0.3">
       <c r="D120" s="23"/>
       <c r="I120" t="s">
         <v>28</v>
@@ -29823,7 +29827,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="121" spans="4:12" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="121" spans="4:12" ht="13" x14ac:dyDescent="0.3">
       <c r="D121" s="23"/>
       <c r="I121" t="s">
         <v>29</v>
@@ -29832,7 +29836,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="122" spans="4:12" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="122" spans="4:12" ht="13" x14ac:dyDescent="0.3">
       <c r="D122" s="23"/>
       <c r="I122" t="s">
         <v>30</v>
@@ -29841,17 +29845,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="125" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="4:12" x14ac:dyDescent="0.25">
       <c r="E125" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="4:12" x14ac:dyDescent="0.25">
       <c r="E126" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="4:12" x14ac:dyDescent="0.25">
       <c r="E127" s="2"/>
       <c r="F127" s="1" t="s">
         <v>25</v>
@@ -29866,7 +29870,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="128" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="4:12" x14ac:dyDescent="0.25">
       <c r="E128" s="2" t="s">
         <v>33</v>
       </c>
@@ -29879,7 +29883,7 @@
         <v>47.61904761904762</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E129" s="2" t="s">
         <v>32</v>
       </c>
@@ -29892,7 +29896,7 @@
         <v>9.5238095238095237</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E130" s="2" t="s">
         <v>31</v>
       </c>
@@ -29905,7 +29909,7 @@
         <v>95.238095238095241</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E131" s="2" t="s">
         <v>34</v>
       </c>
@@ -29915,7 +29919,7 @@
         <v>8.6580086580086579</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B132" s="8"/>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
@@ -29931,7 +29935,7 @@
         <v>15.231437565582375</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B133" s="11"/>
       <c r="E133" s="12" t="s">
         <v>39</v>
@@ -29945,7 +29949,7 @@
         <v>15.95815057712487</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B134" s="13"/>
       <c r="C134" s="14"/>
       <c r="D134" s="14"/>
@@ -29961,7 +29965,7 @@
         <v>16.684863588667366</v>
       </c>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E135" s="2" t="s">
         <v>41</v>
       </c>
@@ -29974,7 +29978,7 @@
         <v>14.661437565582373</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E136" s="2" t="s">
         <v>42</v>
       </c>
@@ -29987,7 +29991,7 @@
         <v>14.960650577124868</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E137" s="2" t="s">
         <v>43</v>
       </c>
@@ -30000,7 +30004,7 @@
         <v>15.259863588667368</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B138" s="8"/>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
@@ -30016,7 +30020,7 @@
         <v>29.411316397228635</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B139" s="11"/>
       <c r="E139" s="12" t="s">
         <v>45</v>
@@ -30030,7 +30034,7 @@
         <v>30.011547344110852</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B140" s="13"/>
       <c r="C140" s="14"/>
       <c r="D140" s="14"/>
@@ -30046,7 +30050,7 @@
         <v>30.611778290993065</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E141" s="2" t="s">
         <v>47</v>
       </c>
@@ -30059,7 +30063,7 @@
         <v>26.55231639722864</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E142" s="2" t="s">
         <v>48</v>
       </c>
@@ -30072,7 +30076,7 @@
         <v>28.010247344110851</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E143" s="2" t="s">
         <v>49</v>
       </c>
@@ -30085,7 +30089,7 @@
         <v>29.468178290993066</v>
       </c>
     </row>
-    <row r="151" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E151" s="29" t="s">
         <v>115</v>
       </c>
@@ -30097,7 +30101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E152" s="29" t="s">
         <v>116</v>
       </c>
@@ -30109,7 +30113,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="153" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E153" s="29" t="s">
         <v>117</v>
       </c>
@@ -30121,12 +30125,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="174" spans="3:6" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="174" spans="3:6" ht="13" x14ac:dyDescent="0.3">
       <c r="C174" s="23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="175" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E175" s="2" t="s">
         <v>57</v>
       </c>
@@ -30135,7 +30139,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="176" spans="3:6" ht="15" x14ac:dyDescent="0.5">
+    <row r="176" spans="3:6" ht="15.5" x14ac:dyDescent="0.4">
       <c r="E176" s="2" t="s">
         <v>58</v>
       </c>
@@ -30144,7 +30148,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="177" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:25" x14ac:dyDescent="0.25">
       <c r="E177" s="2" t="s">
         <v>59</v>
       </c>
@@ -30153,7 +30157,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="179" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:25" x14ac:dyDescent="0.25">
       <c r="E179" s="2" t="s">
         <v>60</v>
       </c>
@@ -30162,7 +30166,7 @@
         <v>32.333333333333336</v>
       </c>
     </row>
-    <row r="180" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:25" x14ac:dyDescent="0.25">
       <c r="E180" s="2" t="s">
         <v>61</v>
       </c>
@@ -30171,7 +30175,7 @@
         <v>36.666666666666664</v>
       </c>
     </row>
-    <row r="181" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:25" x14ac:dyDescent="0.25">
       <c r="E181" s="2" t="s">
         <v>62</v>
       </c>
@@ -30180,7 +30184,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="183" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:25" x14ac:dyDescent="0.25">
       <c r="E183" s="2" t="s">
         <v>63</v>
       </c>
@@ -30189,7 +30193,7 @@
         <v>65.663999999999987</v>
       </c>
     </row>
-    <row r="184" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:25" x14ac:dyDescent="0.25">
       <c r="E184" s="2" t="s">
         <v>64</v>
       </c>
@@ -30201,7 +30205,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="185" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:25" x14ac:dyDescent="0.25">
       <c r="E185" s="2" t="s">
         <v>65</v>
       </c>
@@ -30210,7 +30214,7 @@
         <v>107.136</v>
       </c>
     </row>
-    <row r="190" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:25" x14ac:dyDescent="0.25">
       <c r="D190" t="s">
         <v>66</v>
       </c>
@@ -30225,7 +30229,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="191" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:25" x14ac:dyDescent="0.25">
       <c r="D191" t="s">
         <v>68</v>
       </c>
@@ -30239,7 +30243,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="192" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B192" s="28" t="s">
         <v>144</v>
       </c>
@@ -30289,7 +30293,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="193" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B193">
         <f>D193*F193</f>
         <v>70.266666666666652</v>
@@ -30351,7 +30355,7 @@
         <v>127.16332644976826</v>
       </c>
     </row>
-    <row r="194" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B194">
         <f t="shared" ref="B194:B257" si="8">D194*F194</f>
         <v>70.933333333333323</v>
@@ -30406,7 +30410,7 @@
         <v>63.581663224884132</v>
       </c>
     </row>
-    <row r="195" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B195">
         <f t="shared" si="8"/>
         <v>71.599999999999994</v>
@@ -30464,7 +30468,7 @@
         <v>42.387775483256085</v>
       </c>
     </row>
-    <row r="196" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B196">
         <f t="shared" si="8"/>
         <v>72.266666666666652</v>
@@ -30525,7 +30529,7 @@
         <v>31.790831612442066</v>
       </c>
     </row>
-    <row r="197" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B197">
         <f t="shared" si="8"/>
         <v>72.933333333333323</v>
@@ -30590,7 +30594,7 @@
         <v>25.432665289953654</v>
       </c>
     </row>
-    <row r="198" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B198">
         <f t="shared" si="8"/>
         <v>73.599999999999994</v>
@@ -30652,7 +30656,7 @@
         <v>21.193887741628043</v>
       </c>
     </row>
-    <row r="199" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B199">
         <f t="shared" si="8"/>
         <v>74.266666666666652</v>
@@ -30714,7 +30718,7 @@
         <v>18.166189492824039</v>
       </c>
     </row>
-    <row r="200" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B200">
         <f t="shared" si="8"/>
         <v>74.933333333333323</v>
@@ -30776,7 +30780,7 @@
         <v>15.895415806221033</v>
       </c>
     </row>
-    <row r="201" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B201">
         <f t="shared" si="8"/>
         <v>75.599999999999994</v>
@@ -30841,7 +30845,7 @@
         <v>14.129258494418696</v>
       </c>
     </row>
-    <row r="202" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B202">
         <f t="shared" si="8"/>
         <v>76.266666666666652</v>
@@ -30903,7 +30907,7 @@
         <v>12.716332644976827</v>
       </c>
     </row>
-    <row r="203" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B203">
         <f t="shared" si="8"/>
         <v>76.933333333333323</v>
@@ -30965,7 +30969,7 @@
         <v>11.560302404524387</v>
       </c>
     </row>
-    <row r="204" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B204">
         <f t="shared" si="8"/>
         <v>77.599999999999994</v>
@@ -31027,7 +31031,7 @@
         <v>10.596943870814021</v>
       </c>
     </row>
-    <row r="205" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B205">
         <f t="shared" si="8"/>
         <v>78.266666666666652</v>
@@ -31089,7 +31093,7 @@
         <v>9.7817943422898672</v>
       </c>
     </row>
-    <row r="206" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B206">
         <f t="shared" si="8"/>
         <v>78.933333333333323</v>
@@ -31154,7 +31158,7 @@
         <v>9.0830947464120193</v>
       </c>
     </row>
-    <row r="207" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B207">
         <f t="shared" si="8"/>
         <v>79.599999999999994</v>
@@ -31216,7 +31220,7 @@
         <v>8.4775550966512174</v>
       </c>
     </row>
-    <row r="208" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B208">
         <f t="shared" si="8"/>
         <v>80.266666666666652</v>
@@ -31278,7 +31282,7 @@
         <v>7.9477079031105164</v>
       </c>
     </row>
-    <row r="209" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B209">
         <f t="shared" si="8"/>
         <v>80.933333333333323</v>
@@ -31340,7 +31344,7 @@
         <v>7.4801956735157802</v>
       </c>
     </row>
-    <row r="210" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B210">
         <f t="shared" si="8"/>
         <v>81.599999999999994</v>
@@ -31402,7 +31406,7 @@
         <v>7.0646292472093482</v>
       </c>
     </row>
-    <row r="211" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B211">
         <f t="shared" si="8"/>
         <v>82.266666666666652</v>
@@ -31467,7 +31471,7 @@
         <v>6.6928066552509611</v>
       </c>
     </row>
-    <row r="212" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B212">
         <f t="shared" si="8"/>
         <v>82.933333333333337</v>
@@ -31529,7 +31533,7 @@
         <v>6.3581663224884135</v>
       </c>
     </row>
-    <row r="213" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B213">
         <f t="shared" si="8"/>
         <v>83.6</v>
@@ -31591,7 +31595,7 @@
         <v>6.0553964976080126</v>
       </c>
     </row>
-    <row r="214" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B214">
         <f t="shared" si="8"/>
         <v>84.266666666666652</v>
@@ -31653,7 +31657,7 @@
         <v>5.7801512022621937</v>
       </c>
     </row>
-    <row r="215" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B215">
         <f t="shared" si="8"/>
         <v>84.933333333333323</v>
@@ -31715,7 +31719,7 @@
         <v>5.5288402804247072</v>
       </c>
     </row>
-    <row r="216" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B216">
         <f t="shared" si="8"/>
         <v>85.6</v>
@@ -31780,7 +31784,7 @@
         <v>5.2984719354070107</v>
       </c>
     </row>
-    <row r="217" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B217">
         <f t="shared" si="8"/>
         <v>86.266666666666652</v>
@@ -31835,7 +31839,7 @@
         <v>5.0865330579907306</v>
       </c>
     </row>
-    <row r="218" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B218">
         <f t="shared" si="8"/>
         <v>86.933333333333323</v>
@@ -31890,7 +31894,7 @@
         <v>4.8908971711449336</v>
       </c>
     </row>
-    <row r="219" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B219">
         <f t="shared" si="8"/>
         <v>87.6</v>
@@ -31945,7 +31949,7 @@
         <v>4.7097528314728985</v>
       </c>
     </row>
-    <row r="220" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B220">
         <f t="shared" si="8"/>
         <v>88.266666666666652</v>
@@ -32000,7 +32004,7 @@
         <v>4.5415473732060097</v>
       </c>
     </row>
-    <row r="221" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B221">
         <f t="shared" si="8"/>
         <v>88.933333333333323</v>
@@ -32055,7 +32059,7 @@
         <v>4.3849422913713196</v>
       </c>
     </row>
-    <row r="222" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B222">
         <f t="shared" si="8"/>
         <v>89.6</v>
@@ -32110,7 +32114,7 @@
         <v>4.2387775483256087</v>
       </c>
     </row>
-    <row r="223" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B223">
         <f t="shared" si="8"/>
         <v>90.266666666666652</v>
@@ -32165,7 +32169,7 @@
         <v>4.1020427887022022</v>
       </c>
     </row>
-    <row r="224" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B224">
         <f t="shared" si="8"/>
         <v>90.933333333333323</v>
@@ -32220,7 +32224,7 @@
         <v>3.9738539515552582</v>
       </c>
     </row>
-    <row r="225" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B225">
         <f t="shared" si="8"/>
         <v>91.6</v>
@@ -32275,7 +32279,7 @@
         <v>3.8534341348414625</v>
       </c>
     </row>
-    <row r="226" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B226">
         <f t="shared" si="8"/>
         <v>92.266666666666652</v>
@@ -32330,7 +32334,7 @@
         <v>3.7400978367578901</v>
       </c>
     </row>
-    <row r="227" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B227">
         <f t="shared" si="8"/>
         <v>92.933333333333323</v>
@@ -32385,7 +32389,7 @@
         <v>3.6332378985648077</v>
       </c>
     </row>
-    <row r="228" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B228">
         <f t="shared" si="8"/>
         <v>93.6</v>
@@ -32440,7 +32444,7 @@
         <v>3.5323146236046741</v>
       </c>
     </row>
-    <row r="229" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B229">
         <f t="shared" si="8"/>
         <v>94.266666666666652</v>
@@ -32495,7 +32499,7 @@
         <v>3.4368466608045476</v>
       </c>
     </row>
-    <row r="230" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B230">
         <f t="shared" si="8"/>
         <v>94.933333333333323</v>
@@ -32550,7 +32554,7 @@
         <v>3.3464033276254805</v>
       </c>
     </row>
-    <row r="231" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B231">
         <f t="shared" si="8"/>
         <v>95.6</v>
@@ -32605,7 +32609,7 @@
         <v>3.2605981140966223</v>
       </c>
     </row>
-    <row r="232" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B232">
         <f t="shared" si="8"/>
         <v>96.266666666666652</v>
@@ -32660,7 +32664,7 @@
         <v>3.1790831612442068</v>
       </c>
     </row>
-    <row r="233" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B233">
         <f t="shared" si="8"/>
         <v>96.933333333333323</v>
@@ -32715,7 +32719,7 @@
         <v>3.1015445475553234</v>
       </c>
     </row>
-    <row r="234" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B234">
         <f t="shared" si="8"/>
         <v>97.6</v>
@@ -32770,7 +32774,7 @@
         <v>3.0276982488040063</v>
       </c>
     </row>
-    <row r="235" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B235">
         <f t="shared" si="8"/>
         <v>98.266666666666637</v>
@@ -32825,7 +32829,7 @@
         <v>2.957286661622518</v>
       </c>
     </row>
-    <row r="236" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B236">
         <f t="shared" si="8"/>
         <v>98.933333333333309</v>
@@ -32880,7 +32884,7 @@
         <v>2.8900756011310968</v>
       </c>
     </row>
-    <row r="237" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B237">
         <f t="shared" si="8"/>
         <v>99.600000000000009</v>
@@ -32935,7 +32939,7 @@
         <v>2.825851698883739</v>
       </c>
     </row>
-    <row r="238" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B238">
         <f t="shared" si="8"/>
         <v>100.26666666666667</v>
@@ -32990,7 +32994,7 @@
         <v>2.7644201402123536</v>
       </c>
     </row>
-    <row r="239" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B239">
         <f t="shared" si="8"/>
         <v>100.93333333333332</v>
@@ -33045,7 +33049,7 @@
         <v>2.7056026904206014</v>
       </c>
     </row>
-    <row r="240" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B240">
         <f t="shared" si="8"/>
         <v>101.6</v>
@@ -33100,7 +33104,7 @@
         <v>2.6492359677035053</v>
       </c>
     </row>
-    <row r="241" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B241">
         <f t="shared" si="8"/>
         <v>102.26666666666665</v>
@@ -33155,7 +33159,7 @@
         <v>2.5951699275462912</v>
       </c>
     </row>
-    <row r="242" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B242">
         <f t="shared" si="8"/>
         <v>102.93333333333332</v>
@@ -33210,7 +33214,7 @@
         <v>2.5432665289953653</v>
       </c>
     </row>
-    <row r="243" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B243">
         <f t="shared" si="8"/>
         <v>103.6</v>
@@ -33265,7 +33269,7 @@
         <v>2.4933985578385935</v>
       </c>
     </row>
-    <row r="244" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B244">
         <f t="shared" si="8"/>
         <v>104.26666666666664</v>
@@ -33320,7 +33324,7 @@
         <v>2.4454485855724668</v>
       </c>
     </row>
-    <row r="245" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B245">
         <f t="shared" si="8"/>
         <v>104.93333333333332</v>
@@ -33375,7 +33379,7 @@
         <v>2.3993080462220426</v>
       </c>
     </row>
-    <row r="246" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B246">
         <f t="shared" si="8"/>
         <v>105.6</v>
@@ -33430,7 +33434,7 @@
         <v>2.3548764157364492</v>
       </c>
     </row>
-    <row r="247" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B247">
         <f t="shared" si="8"/>
         <v>106.26666666666665</v>
@@ -33485,7 +33489,7 @@
         <v>2.3120604809048775</v>
       </c>
     </row>
-    <row r="248" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B248">
         <f t="shared" si="8"/>
         <v>106.93333333333332</v>
@@ -33540,7 +33544,7 @@
         <v>2.2707736866030048</v>
       </c>
     </row>
-    <row r="249" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B249">
         <f t="shared" si="8"/>
         <v>107.6</v>
@@ -33595,7 +33599,7 @@
         <v>2.2309355517503202</v>
       </c>
     </row>
-    <row r="250" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B250">
         <f t="shared" si="8"/>
         <v>108.26666666666665</v>
@@ -33650,7 +33654,7 @@
         <v>2.1924711456856598</v>
       </c>
     </row>
-    <row r="251" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B251">
         <f t="shared" si="8"/>
         <v>108.93333333333332</v>
@@ -33705,7 +33709,7 @@
         <v>2.1553106177926824</v>
       </c>
     </row>
-    <row r="252" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B252">
         <f t="shared" si="8"/>
         <v>109.6</v>
@@ -33760,7 +33764,7 @@
         <v>2.1193887741628044</v>
       </c>
     </row>
-    <row r="253" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B253">
         <f t="shared" si="8"/>
         <v>110.26666666666665</v>
@@ -33815,7 +33819,7 @@
         <v>2.0846446958978402</v>
       </c>
     </row>
-    <row r="254" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B254">
         <f t="shared" si="8"/>
         <v>110.93333333333332</v>
@@ -33870,7 +33874,7 @@
         <v>2.0510213943511011</v>
       </c>
     </row>
-    <row r="255" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B255">
         <f t="shared" si="8"/>
         <v>111.6</v>
@@ -33925,7 +33929,7 @@
         <v>2.0184654992026707</v>
       </c>
     </row>
-    <row r="256" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B256">
         <f t="shared" si="8"/>
         <v>112.26666666666665</v>
@@ -33980,7 +33984,7 @@
         <v>1.9869269757776291</v>
       </c>
     </row>
-    <row r="257" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B257">
         <f t="shared" si="8"/>
         <v>112.93333333333332</v>
@@ -34035,7 +34039,7 @@
         <v>1.9563588684579734</v>
       </c>
     </row>
-    <row r="258" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B258">
         <f t="shared" ref="B258:B272" si="37">D258*F258</f>
         <v>113.6</v>
@@ -34090,7 +34094,7 @@
         <v>1.9267170674207312</v>
       </c>
     </row>
-    <row r="259" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B259">
         <f t="shared" si="37"/>
         <v>114.26666666666665</v>
@@ -34145,7 +34149,7 @@
         <v>1.8979600962651979</v>
       </c>
     </row>
-    <row r="260" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B260">
         <f t="shared" si="37"/>
         <v>114.93333333333332</v>
@@ -34200,7 +34204,7 @@
         <v>1.870048918378945</v>
       </c>
     </row>
-    <row r="261" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B261">
         <f t="shared" si="37"/>
         <v>115.60000000000001</v>
@@ -34255,7 +34259,7 @@
         <v>1.842946760141569</v>
       </c>
     </row>
-    <row r="262" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B262">
         <f t="shared" si="37"/>
         <v>116.26666666666665</v>
@@ -34310,7 +34314,7 @@
         <v>1.8166189492824039</v>
       </c>
     </row>
-    <row r="263" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B263">
         <f t="shared" si="37"/>
         <v>116.93333333333332</v>
@@ -34365,7 +34369,7 @@
         <v>1.7910327668981445</v>
       </c>
     </row>
-    <row r="264" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B264">
         <f t="shared" si="37"/>
         <v>117.6</v>
@@ -34420,7 +34424,7 @@
         <v>1.766157311802337</v>
       </c>
     </row>
-    <row r="265" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B265">
         <f t="shared" si="37"/>
         <v>118.26666666666665</v>
@@ -34475,7 +34479,7 @@
         <v>1.7419633760242228</v>
       </c>
     </row>
-    <row r="266" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B266">
         <f t="shared" si="37"/>
         <v>118.93333333333332</v>
@@ -34530,7 +34534,7 @@
         <v>1.7184233304022738</v>
       </c>
     </row>
-    <row r="267" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B267">
         <f t="shared" si="37"/>
         <v>119.6</v>
@@ -34585,7 +34589,7 @@
         <v>1.6955110193302436</v>
       </c>
     </row>
-    <row r="268" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B268">
         <f t="shared" si="37"/>
         <v>120.26666666666665</v>
@@ -34640,7 +34644,7 @@
         <v>1.6732016638127403</v>
       </c>
     </row>
-    <row r="269" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B269">
         <f t="shared" si="37"/>
         <v>120.93333333333332</v>
@@ -34695,7 +34699,7 @@
         <v>1.6514717720749126</v>
       </c>
     </row>
-    <row r="270" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B270">
         <f t="shared" si="37"/>
         <v>121.6</v>
@@ -34750,7 +34754,7 @@
         <v>1.6302990570483111</v>
       </c>
     </row>
-    <row r="271" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B271">
         <f t="shared" si="37"/>
         <v>122.26666666666665</v>
@@ -34805,7 +34809,7 @@
         <v>1.6096623601236488</v>
       </c>
     </row>
-    <row r="272" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B272">
         <f t="shared" si="37"/>
         <v>122.93333333333334</v>
@@ -34860,7 +34864,7 @@
         <v>1.5895415806221034</v>
       </c>
     </row>
-    <row r="273" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="273" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D273" s="1"/>
       <c r="E273" s="16"/>
       <c r="F273" s="16"/>
@@ -34870,12 +34874,12 @@
       <c r="K273" s="16"/>
       <c r="L273" s="16"/>
     </row>
-    <row r="275" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="275" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D275" s="28" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="277" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="277" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D277" s="28" t="s">
         <v>312</v>
       </c>
@@ -34884,7 +34888,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="278" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="278" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D278" s="28" t="s">
         <v>313</v>
       </c>
@@ -34893,7 +34897,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="279" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="279" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D279" s="28" t="s">
         <v>314</v>
       </c>
@@ -34902,7 +34906,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="280" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="280" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D280" s="28" t="s">
         <v>315</v>
       </c>
@@ -34911,7 +34915,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="282" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="282" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D282" s="133" t="s">
         <v>276</v>
       </c>
@@ -34937,27 +34941,27 @@
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="61" customWidth="1"/>
-    <col min="2" max="3" width="9.1328125" style="61"/>
+    <col min="2" max="3" width="9.08984375" style="61"/>
     <col min="4" max="5" width="15" style="61" customWidth="1"/>
-    <col min="6" max="6" width="15.3984375" style="61" customWidth="1"/>
-    <col min="7" max="7" width="14.86328125" style="61" customWidth="1"/>
-    <col min="8" max="8" width="10.73046875" style="61" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" style="61" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.86328125" style="61" customWidth="1"/>
-    <col min="11" max="11" width="12.86328125" style="61" customWidth="1"/>
-    <col min="12" max="12" width="14.265625" style="61" customWidth="1"/>
-    <col min="13" max="13" width="20.86328125" style="61" customWidth="1"/>
-    <col min="14" max="14" width="12.73046875" style="61" customWidth="1"/>
-    <col min="15" max="15" width="10.1328125" style="61" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.86328125" style="61" customWidth="1"/>
-    <col min="17" max="17" width="10.86328125" style="61" customWidth="1"/>
-    <col min="18" max="16384" width="9.1328125" style="61"/>
+    <col min="6" max="6" width="15.36328125" style="61" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" style="61" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" style="61" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" style="61" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" style="61" customWidth="1"/>
+    <col min="11" max="11" width="12.81640625" style="61" customWidth="1"/>
+    <col min="12" max="12" width="14.26953125" style="61" customWidth="1"/>
+    <col min="13" max="13" width="20.81640625" style="61" customWidth="1"/>
+    <col min="14" max="14" width="12.7265625" style="61" customWidth="1"/>
+    <col min="15" max="15" width="10.08984375" style="61" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.81640625" style="61" customWidth="1"/>
+    <col min="17" max="17" width="10.81640625" style="61" customWidth="1"/>
+    <col min="18" max="16384" width="9.08984375" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" s="61" t="s">
         <v>144</v>
       </c>
@@ -34998,7 +35002,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" s="137">
         <f>'Design Calculator'!F67</f>
         <v>86.399999999999991</v>
@@ -35051,12 +35055,12 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="137"/>
       <c r="M3" s="137"/>
       <c r="O3" s="140"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="137"/>
       <c r="D4" s="61" t="s">
         <v>328</v>
@@ -35082,7 +35086,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="137"/>
       <c r="M5" s="61" t="s">
         <v>330</v>
@@ -35105,7 +35109,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="P6" s="61" t="s">
         <v>339</v>
       </c>
@@ -35117,7 +35121,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:25" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="138" t="s">
         <v>167</v>
       </c>
@@ -35170,7 +35174,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:25" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="138"/>
       <c r="B8" s="139"/>
       <c r="C8" s="139"/>
@@ -35191,7 +35195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:25" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="138"/>
       <c r="B9" s="139"/>
       <c r="C9" s="139"/>
@@ -35212,7 +35216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="61">
         <f t="shared" ref="A10:A41" si="0">VINMAX</f>
         <v>25.2</v>
@@ -35282,7 +35286,7 @@
         <v>2.016</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="61">
         <f t="shared" si="0"/>
         <v>25.2</v>
@@ -35352,7 +35356,7 @@
         <v>1.9966153846153847</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:25" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="61">
         <f t="shared" si="0"/>
         <v>25.2</v>
@@ -35426,7 +35430,7 @@
       </c>
       <c r="Y12" s="291"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="61">
         <f t="shared" si="0"/>
         <v>25.2</v>
@@ -35502,7 +35506,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="61">
         <f t="shared" si="0"/>
         <v>25.2</v>
@@ -35578,7 +35582,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="61">
         <f t="shared" si="0"/>
         <v>25.2</v>
@@ -35655,7 +35659,7 @@
         <v>0.42426406871192851</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="61">
         <f t="shared" si="0"/>
         <v>25.2</v>
@@ -35727,7 +35731,7 @@
       <c r="X16" s="65"/>
       <c r="Y16" s="65"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="61">
         <f t="shared" si="0"/>
         <v>25.2</v>
@@ -35803,7 +35807,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="61">
         <f t="shared" si="0"/>
         <v>25.2</v>
@@ -35880,7 +35884,7 @@
         <v>0.42426406871192851</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="61">
         <f t="shared" si="0"/>
         <v>25.2</v>
@@ -35952,7 +35956,7 @@
       <c r="X19" s="65"/>
       <c r="Y19" s="65"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="61">
         <f t="shared" si="0"/>
         <v>25.2</v>
@@ -36028,7 +36032,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="61">
         <f t="shared" si="0"/>
         <v>25.2</v>
@@ -36104,7 +36108,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="61">
         <f t="shared" si="0"/>
         <v>25.2</v>
@@ -36181,7 +36185,7 @@
         <v>0.28284271247461906</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="61">
         <f t="shared" si="0"/>
         <v>25.2</v>
@@ -36253,7 +36257,7 @@
       <c r="X23" s="65"/>
       <c r="Y23" s="65"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="61">
         <f t="shared" si="0"/>
         <v>25.2</v>
@@ -36330,7 +36334,7 @@
         <v>0.50990195135927852</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="61">
         <f t="shared" si="0"/>
         <v>25.2</v>
@@ -36400,7 +36404,7 @@
         <v>1.7252307692307693</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="61">
         <f t="shared" si="0"/>
         <v>25.2</v>
@@ -36470,7 +36474,7 @@
         <v>1.7058461538461538</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="61">
         <f t="shared" si="0"/>
         <v>25.2</v>
@@ -36540,7 +36544,7 @@
         <v>1.6864615384615385</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="61">
         <f t="shared" si="0"/>
         <v>25.2</v>
@@ -36610,7 +36614,7 @@
         <v>1.6670769230769231</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="61">
         <f t="shared" si="0"/>
         <v>25.2</v>
@@ -36680,7 +36684,7 @@
         <v>1.6476923076923078</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="61">
         <f t="shared" si="0"/>
         <v>25.2</v>
@@ -36750,7 +36754,7 @@
         <v>1.6283076923076922</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="61">
         <f t="shared" si="0"/>
         <v>25.2</v>
@@ -36820,7 +36824,7 @@
         <v>1.6089230769230769</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="61">
         <f t="shared" si="0"/>
         <v>25.2</v>
@@ -36890,7 +36894,7 @@
         <v>1.5895384615384616</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="61">
         <f t="shared" si="0"/>
         <v>25.2</v>
@@ -36960,7 +36964,7 @@
         <v>1.5701538461538462</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="61">
         <f t="shared" si="0"/>
         <v>25.2</v>
@@ -37030,7 +37034,7 @@
         <v>1.5507692307692307</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="61">
         <f t="shared" si="0"/>
         <v>25.2</v>
@@ -37100,7 +37104,7 @@
         <v>1.5313846153846153</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="61">
         <f t="shared" si="0"/>
         <v>25.2</v>
@@ -37170,7 +37174,7 @@
         <v>1.512</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="61">
         <f t="shared" si="0"/>
         <v>25.2</v>
@@ -37240,7 +37244,7 @@
         <v>1.4926153846153847</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="61">
         <f t="shared" si="0"/>
         <v>25.2</v>
@@ -37310,7 +37314,7 @@
         <v>1.4732307692307691</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="61">
         <f t="shared" si="0"/>
         <v>25.2</v>
@@ -37380,7 +37384,7 @@
         <v>1.4538461538461538</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="61">
         <f t="shared" si="0"/>
         <v>25.2</v>
@@ -37450,7 +37454,7 @@
         <v>1.4344615384615385</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="61">
         <f t="shared" si="0"/>
         <v>25.2</v>
@@ -37520,7 +37524,7 @@
         <v>1.4150769230769231</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="61">
         <f t="shared" ref="A42:A73" si="17">VINMAX</f>
         <v>25.2</v>
@@ -37590,7 +37594,7 @@
         <v>1.3956923076923076</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="61">
         <f t="shared" si="17"/>
         <v>25.2</v>
@@ -37660,7 +37664,7 @@
         <v>1.3763076923076925</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="61">
         <f t="shared" si="17"/>
         <v>25.2</v>
@@ -37730,7 +37734,7 @@
         <v>1.3569230769230769</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="61">
         <f t="shared" si="17"/>
         <v>25.2</v>
@@ -37800,7 +37804,7 @@
         <v>1.3375384615384616</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="61">
         <f t="shared" si="17"/>
         <v>25.2</v>
@@ -37870,7 +37874,7 @@
         <v>1.3181538461538462</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="61">
         <f t="shared" si="17"/>
         <v>25.2</v>
@@ -37940,7 +37944,7 @@
         <v>1.2987692307692309</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="61">
         <f t="shared" si="17"/>
         <v>25.2</v>
@@ -38010,7 +38014,7 @@
         <v>1.2793846153846153</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="61">
         <f t="shared" si="17"/>
         <v>25.2</v>
@@ -38080,7 +38084,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="61">
         <f t="shared" si="17"/>
         <v>25.2</v>
@@ -38150,7 +38154,7 @@
         <v>1.2406153846153845</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="61">
         <f t="shared" si="17"/>
         <v>25.2</v>
@@ -38220,7 +38224,7 @@
         <v>1.2212307692307693</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="61">
         <f t="shared" si="17"/>
         <v>25.2</v>
@@ -38290,7 +38294,7 @@
         <v>1.2018461538461538</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="61">
         <f t="shared" si="17"/>
         <v>25.2</v>
@@ -38360,7 +38364,7 @@
         <v>1.1824615384615385</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="61">
         <f t="shared" si="17"/>
         <v>25.2</v>
@@ -38430,7 +38434,7 @@
         <v>1.1630769230769231</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="61">
         <f t="shared" si="17"/>
         <v>25.2</v>
@@ -38500,7 +38504,7 @@
         <v>1.1436923076923078</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="61">
         <f t="shared" si="17"/>
         <v>25.2</v>
@@ -38570,7 +38574,7 @@
         <v>1.1243076923076922</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="61">
         <f t="shared" si="17"/>
         <v>25.2</v>
@@ -38640,7 +38644,7 @@
         <v>1.1049230769230769</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="61">
         <f t="shared" si="17"/>
         <v>25.2</v>
@@ -38710,7 +38714,7 @@
         <v>1.0855384615384616</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="61">
         <f t="shared" si="17"/>
         <v>25.2</v>
@@ -38780,7 +38784,7 @@
         <v>1.0661538461538462</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="61">
         <f t="shared" si="17"/>
         <v>25.2</v>
@@ -38850,7 +38854,7 @@
         <v>1.0467692307692307</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="61">
         <f t="shared" si="17"/>
         <v>25.2</v>
@@ -38920,7 +38924,7 @@
         <v>1.0273846153846153</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="61">
         <f t="shared" si="17"/>
         <v>25.2</v>
@@ -38990,7 +38994,7 @@
         <v>1.008</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="61">
         <f t="shared" si="17"/>
         <v>25.2</v>
@@ -39060,7 +39064,7 @@
         <v>0.98861538461538478</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="61">
         <f t="shared" si="17"/>
         <v>25.2</v>
@@ -39130,7 +39134,7 @@
         <v>0.96923076923076912</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="61">
         <f t="shared" si="17"/>
         <v>25.2</v>
@@ -39200,7 +39204,7 @@
         <v>0.94984615384615378</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="61">
         <f t="shared" si="17"/>
         <v>25.2</v>
@@ -39270,7 +39274,7 @@
         <v>0.93046153846153845</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="61">
         <f t="shared" si="17"/>
         <v>25.2</v>
@@ -39340,7 +39344,7 @@
         <v>0.9110769230769229</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="61">
         <f t="shared" si="17"/>
         <v>25.2</v>
@@ -39410,7 +39414,7 @@
         <v>0.89169230769230767</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="61">
         <f t="shared" si="17"/>
         <v>25.2</v>
@@ -39480,7 +39484,7 @@
         <v>0.87230769230769223</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="61">
         <f t="shared" si="17"/>
         <v>25.2</v>
@@ -39550,7 +39554,7 @@
         <v>0.85292307692307701</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="61">
         <f t="shared" si="17"/>
         <v>25.2</v>
@@ -39620,7 +39624,7 @@
         <v>0.83353846153846156</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="61">
         <f t="shared" si="17"/>
         <v>25.2</v>
@@ -39690,7 +39694,7 @@
         <v>0.81415384615384612</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="61">
         <f t="shared" si="17"/>
         <v>25.2</v>
@@ -39760,7 +39764,7 @@
         <v>0.79476923076923089</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="61">
         <f t="shared" ref="A74:A105" si="26">VINMAX</f>
         <v>25.2</v>
@@ -39830,7 +39834,7 @@
         <v>0.77538461538461534</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="61">
         <f t="shared" si="26"/>
         <v>25.2</v>
@@ -39900,7 +39904,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="61">
         <f t="shared" si="26"/>
         <v>25.2</v>
@@ -39970,7 +39974,7 @@
         <v>0.73661538461538467</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="61">
         <f t="shared" si="26"/>
         <v>25.2</v>
@@ -40040,7 +40044,7 @@
         <v>0.71723076923076923</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="61">
         <f t="shared" si="26"/>
         <v>25.2</v>
@@ -40110,7 +40114,7 @@
         <v>0.69784615384615389</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="61">
         <f t="shared" si="26"/>
         <v>25.2</v>
@@ -40180,7 +40184,7 @@
         <v>0.67846153846153845</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="61">
         <f t="shared" si="26"/>
         <v>25.2</v>
@@ -40250,7 +40254,7 @@
         <v>0.65907692307692289</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="61">
         <f t="shared" si="26"/>
         <v>25.2</v>
@@ -40320,7 +40324,7 @@
         <v>0.63969230769230767</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="61">
         <f t="shared" si="26"/>
         <v>25.2</v>
@@ -40390,7 +40394,7 @@
         <v>0.62030769230769234</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="61">
         <f t="shared" si="26"/>
         <v>25.2</v>
@@ -40460,7 +40464,7 @@
         <v>0.60092307692307712</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="61">
         <f t="shared" si="26"/>
         <v>25.2</v>
@@ -40530,7 +40534,7 @@
         <v>0.58153846153846167</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="61">
         <f t="shared" si="26"/>
         <v>25.2</v>
@@ -40600,7 +40604,7 @@
         <v>0.56215384615384612</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="61">
         <f t="shared" si="26"/>
         <v>25.2</v>
@@ -40670,7 +40674,7 @@
         <v>0.54276923076923089</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="61">
         <f t="shared" si="26"/>
         <v>25.2</v>
@@ -40740,7 +40744,7 @@
         <v>0.52338461538461534</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="61">
         <f t="shared" si="26"/>
         <v>25.2</v>
@@ -40810,7 +40814,7 @@
         <v>0.50400000000000011</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="61">
         <f t="shared" si="26"/>
         <v>25.2</v>
@@ -40880,7 +40884,7 @@
         <v>0.48461538461538484</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="61">
         <f t="shared" si="26"/>
         <v>25.2</v>
@@ -40950,7 +40954,7 @@
         <v>0.465230769230769</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="61">
         <f t="shared" si="26"/>
         <v>25.2</v>
@@ -41020,7 +41024,7 @@
         <v>0.44584615384615378</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="61">
         <f t="shared" si="26"/>
         <v>25.2</v>
@@ -41090,7 +41094,7 @@
         <v>0.4264615384615385</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="61">
         <f t="shared" si="26"/>
         <v>25.2</v>
@@ -41160,7 +41164,7 @@
         <v>0.407076923076923</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="61">
         <f t="shared" si="26"/>
         <v>25.2</v>
@@ -41230,7 +41234,7 @@
         <v>0.38769230769230772</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="61">
         <f t="shared" si="26"/>
         <v>25.2</v>
@@ -41300,7 +41304,7 @@
         <v>0.36830769230769222</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="61">
         <f t="shared" si="26"/>
         <v>25.2</v>
@@ -41370,7 +41374,7 @@
         <v>0.34892307692307695</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="61">
         <f t="shared" si="26"/>
         <v>25.2</v>
@@ -41440,7 +41444,7 @@
         <v>0.32953846153846145</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="61">
         <f t="shared" si="26"/>
         <v>25.2</v>
@@ -41510,7 +41514,7 @@
         <v>0.31015384615384617</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="61">
         <f t="shared" si="26"/>
         <v>25.2</v>
@@ -41580,7 +41584,7 @@
         <v>0.29076923076923095</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="61">
         <f t="shared" si="26"/>
         <v>25.2</v>
@@ -41650,7 +41654,7 @@
         <v>0.27138461538461545</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="61">
         <f t="shared" si="26"/>
         <v>25.2</v>
@@ -41720,7 +41724,7 @@
         <v>0.25199999999999989</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="61">
         <f t="shared" si="26"/>
         <v>25.2</v>
@@ -41790,7 +41794,7 @@
         <v>0.23261538461538464</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="61">
         <f t="shared" si="26"/>
         <v>25.2</v>
@@ -41860,7 +41864,7 @@
         <v>0.21323076923076911</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="61">
         <f t="shared" si="26"/>
         <v>25.2</v>
@@ -41930,7 +41934,7 @@
         <v>0.19384615384615386</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="61">
         <f t="shared" si="26"/>
         <v>25.2</v>
@@ -42000,7 +42004,7 @@
         <v>0.17446153846153864</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="61">
         <f t="shared" ref="A106:A114" si="42">VINMAX</f>
         <v>25.2</v>
@@ -42070,7 +42074,7 @@
         <v>0.15507692307692308</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="61">
         <f t="shared" si="42"/>
         <v>25.2</v>
@@ -42140,7 +42144,7 @@
         <v>0.13569230769230756</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="61">
         <f t="shared" si="42"/>
         <v>25.2</v>
@@ -42210,7 +42214,7 @@
         <v>0.11630769230769232</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="61">
         <f t="shared" si="42"/>
         <v>25.2</v>
@@ -42280,7 +42284,7 @@
         <v>9.6923076923077084E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="61">
         <f t="shared" si="42"/>
         <v>25.2</v>
@@ -42350,7 +42354,7 @@
         <v>7.7538461538461542E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="61">
         <f t="shared" si="42"/>
         <v>25.2</v>
@@ -42420,7 +42424,7 @@
         <v>5.8153846153846306E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="61">
         <f t="shared" si="42"/>
         <v>25.2</v>
@@ -42490,7 +42494,7 @@
         <v>3.8769230769230771E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="61">
         <f t="shared" si="42"/>
         <v>25.2</v>
@@ -42560,7 +42564,7 @@
         <v>1.9384615384615247E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="61">
         <f t="shared" si="42"/>
         <v>25.2</v>
@@ -42630,7 +42634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K115" s="174">
         <f>K114+0.5</f>
         <v>158.00000000000014</v>
@@ -42661,24 +42665,24 @@
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.73046875" customWidth="1"/>
-    <col min="2" max="2" width="17.265625" customWidth="1"/>
-    <col min="3" max="3" width="13.1328125" customWidth="1"/>
+    <col min="1" max="1" width="19.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="6" width="17.73046875" customWidth="1"/>
-    <col min="7" max="7" width="31.59765625" customWidth="1"/>
+    <col min="5" max="6" width="17.7265625" customWidth="1"/>
+    <col min="7" max="7" width="31.6328125" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="13" max="13" width="12.86328125" customWidth="1"/>
-    <col min="15" max="15" width="17.265625" customWidth="1"/>
-    <col min="17" max="17" width="13.265625" customWidth="1"/>
-    <col min="18" max="18" width="16.86328125" customWidth="1"/>
+    <col min="13" max="13" width="12.81640625" customWidth="1"/>
+    <col min="15" max="15" width="17.26953125" customWidth="1"/>
+    <col min="17" max="17" width="13.26953125" customWidth="1"/>
+    <col min="18" max="18" width="16.81640625" customWidth="1"/>
     <col min="20" max="20" width="13" customWidth="1"/>
-    <col min="21" max="21" width="10.1328125" customWidth="1"/>
+    <col min="21" max="21" width="10.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="69"/>
       <c r="B2" s="171"/>
       <c r="C2" s="292" t="s">
@@ -42698,7 +42702,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="69"/>
       <c r="B3" s="70" t="s">
         <v>225</v>
@@ -42731,7 +42735,7 @@
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
     </row>
-    <row r="4" spans="1:21" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="21.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="70" t="s">
         <v>175</v>
       </c>
@@ -42771,7 +42775,7 @@
       <c r="S4" s="16"/>
       <c r="T4" s="16"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -42790,7 +42794,7 @@
       <c r="S5" s="295"/>
       <c r="T5" s="295"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -42803,7 +42807,7 @@
       <c r="M6" s="16"/>
       <c r="O6" s="28"/>
     </row>
-    <row r="7" spans="1:21" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B7" s="72" t="s">
         <v>360</v>
       </c>
@@ -42818,7 +42822,7 @@
       <c r="T7" s="73"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:21" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B8" s="28" t="s">
         <v>176</v>
       </c>
@@ -42843,7 +42847,7 @@
       <c r="T8" s="73"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="1:21" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B9" s="28" t="s">
         <v>177</v>
       </c>
@@ -42866,7 +42870,7 @@
       <c r="P9" s="73"/>
       <c r="T9" s="73"/>
     </row>
-    <row r="10" spans="1:21" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B10" s="28" t="s">
         <v>178</v>
       </c>
@@ -42889,7 +42893,7 @@
       <c r="P10" s="73"/>
       <c r="T10" s="73"/>
     </row>
-    <row r="11" spans="1:21" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B11" s="28" t="s">
         <v>439</v>
       </c>
@@ -42908,7 +42912,7 @@
       <c r="K11" s="16"/>
       <c r="P11" s="73"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B12" s="28" t="s">
         <v>179</v>
       </c>
@@ -42928,7 +42932,7 @@
       </c>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13" s="28" t="s">
         <v>440</v>
       </c>
@@ -42946,7 +42950,7 @@
       </c>
       <c r="K13" s="16"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B14" s="28" t="s">
         <v>180</v>
       </c>
@@ -42966,7 +42970,7 @@
       </c>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
         <v>181</v>
       </c>
@@ -42986,10 +42990,10 @@
       </c>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="28" t="s">
         <v>185</v>
       </c>
@@ -42998,7 +43002,7 @@
       </c>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="28" t="s">
         <v>182</v>
       </c>
@@ -43015,7 +43019,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="28" t="s">
         <v>183</v>
       </c>
@@ -43036,7 +43040,7 @@
       </c>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="28" t="s">
         <v>184</v>
       </c>
@@ -43057,11 +43061,11 @@
       <c r="K20" s="16"/>
       <c r="M20" s="28"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="K21" s="16"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="29" t="s">
         <v>187</v>
       </c>
@@ -43079,10 +43083,10 @@
       </c>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G24" s="28" t="s">
         <v>368</v>
       </c>
@@ -43093,7 +43097,7 @@
       <c r="K24" s="16"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="68" t="s">
         <v>193</v>
       </c>
@@ -43114,7 +43118,7 @@
       <c r="K25" s="16"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="29" t="s">
         <v>188</v>
       </c>
@@ -43129,7 +43133,7 @@
       <c r="F26" s="16"/>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="16"/>
@@ -43144,7 +43148,7 @@
       </c>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
@@ -43158,7 +43162,7 @@
       </c>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="68" t="s">
         <v>397</v>
       </c>
@@ -43169,7 +43173,7 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C30" s="72" t="s">
         <v>398</v>
       </c>
@@ -43187,7 +43191,7 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="68" t="s">
         <v>402</v>
       </c>
@@ -43205,7 +43209,7 @@
       </c>
       <c r="G31" s="163"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="68" t="s">
         <v>403</v>
       </c>
@@ -43223,7 +43227,7 @@
       </c>
       <c r="G32" s="29"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="68" t="s">
         <v>182</v>
       </c>
@@ -43245,7 +43249,7 @@
       </c>
       <c r="G33" s="28"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="68" t="s">
         <v>183</v>
       </c>
@@ -43267,188 +43271,188 @@
       </c>
       <c r="G34" s="28"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E35" s="16"/>
       <c r="G35" s="28"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E36" s="16"/>
       <c r="G36" s="28"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E37" s="16"/>
       <c r="G37" s="28"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E38" s="16"/>
       <c r="G38" s="28"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E39" s="16"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E40" s="16"/>
       <c r="G40" s="28"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E41" s="16"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E42" s="16"/>
       <c r="G42" s="28"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E43" s="16"/>
       <c r="G43" s="28"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E44" s="16"/>
       <c r="G44" s="28"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E45" s="16"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E46" s="16"/>
       <c r="G46" s="29"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E47" s="16"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E48" s="16"/>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E49" s="16"/>
       <c r="G49" s="68"/>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E50" s="16"/>
       <c r="G50" s="29"/>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E51" s="16"/>
       <c r="F51" s="16"/>
       <c r="G51" s="16"/>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C53" s="1"/>
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
       <c r="G53" s="16"/>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C54" s="1"/>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
       <c r="G54" s="16"/>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C55" s="1"/>
       <c r="D55" s="16"/>
       <c r="E55" s="16"/>
       <c r="F55" s="16"/>
       <c r="G55" s="16"/>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C56" s="1"/>
       <c r="D56" s="16"/>
       <c r="E56" s="16"/>
       <c r="F56" s="16"/>
       <c r="G56" s="16"/>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C57" s="1"/>
       <c r="D57" s="16"/>
       <c r="E57" s="16"/>
       <c r="F57" s="16"/>
       <c r="G57" s="16"/>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C58" s="1"/>
       <c r="D58" s="16"/>
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
       <c r="G58" s="16"/>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C59" s="1"/>
       <c r="D59" s="16"/>
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
       <c r="G59" s="16"/>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C60" s="1"/>
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
     </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C61" s="1"/>
       <c r="D61" s="16"/>
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
       <c r="G61" s="16"/>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C62" s="1"/>
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
       <c r="F62" s="16"/>
       <c r="G62" s="16"/>
     </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C63" s="1"/>
       <c r="D63" s="16"/>
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
     </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C64" s="1"/>
       <c r="D64" s="16"/>
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
     </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C65" s="1"/>
       <c r="D65" s="16"/>
       <c r="E65" s="16"/>
       <c r="F65" s="16"/>
       <c r="G65" s="16"/>
     </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C66" s="1"/>
       <c r="D66" s="16"/>
       <c r="E66" s="16"/>
       <c r="F66" s="16"/>
       <c r="G66" s="16"/>
     </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C67" s="1"/>
       <c r="D67" s="16"/>
       <c r="E67" s="16"/>
       <c r="F67" s="16"/>
       <c r="G67" s="16"/>
     </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C68" s="1"/>
       <c r="D68" s="16"/>
       <c r="E68" s="16"/>
       <c r="F68" s="16"/>
       <c r="G68" s="16"/>
     </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C69" s="1"/>
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
@@ -43475,53 +43479,53 @@
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="37.3984375" customWidth="1"/>
-    <col min="5" max="5" width="15.73046875" customWidth="1"/>
-    <col min="9" max="9" width="13.265625" customWidth="1"/>
-    <col min="10" max="10" width="11.73046875" customWidth="1"/>
-    <col min="11" max="11" width="11.3984375" customWidth="1"/>
+    <col min="4" max="4" width="37.36328125" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" customWidth="1"/>
+    <col min="10" max="10" width="11.7265625" customWidth="1"/>
+    <col min="11" max="11" width="11.36328125" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="13.73046875" customWidth="1"/>
+    <col min="13" max="13" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" s="28" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" s="28" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" s="28" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10" s="28" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C11" s="28" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C12" s="28" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C13" s="28" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C14" s="28" t="s">
         <v>390</v>
       </c>
@@ -43529,27 +43533,27 @@
         <v>391</v>
       </c>
     </row>
-    <row r="15" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="28"/>
       <c r="D15" s="28" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="16" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
     </row>
-    <row r="17" spans="3:13" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
     </row>
-    <row r="18" spans="3:13" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="28"/>
       <c r="D18" s="72" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C19" s="28"/>
       <c r="D19" s="28" t="s">
         <v>406</v>
@@ -43559,7 +43563,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D20" s="28" t="s">
         <v>388</v>
       </c>
@@ -43573,7 +43577,7 @@
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D21" s="28" t="s">
         <v>380</v>
       </c>
@@ -43594,7 +43598,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D22" s="28" t="s">
         <v>382</v>
       </c>
@@ -43618,7 +43622,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D23" s="28" t="s">
         <v>383</v>
       </c>
@@ -43642,7 +43646,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="I24" s="68" t="s">
         <v>182</v>
       </c>
@@ -43663,7 +43667,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>189</v>
       </c>
@@ -43691,7 +43695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>134</v>
       </c>
@@ -43700,7 +43704,7 @@
         <v>Constant Current</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>135</v>
       </c>
@@ -43715,7 +43719,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
         <v>417</v>
       </c>
@@ -43728,7 +43732,7 @@
         <v>0.17135413257197143</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D29" s="28" t="s">
         <v>436</v>
       </c>
@@ -43748,7 +43752,7 @@
         <v>0.10708559822108767</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D30" s="28" t="s">
         <v>437</v>
       </c>
@@ -43756,7 +43760,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D31" s="28" t="s">
         <v>409</v>
       </c>
@@ -43764,7 +43768,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D32" s="28" t="s">
         <v>410</v>
       </c>
@@ -43773,10 +43777,10 @@
         <v>0.78475997035146128</v>
       </c>
     </row>
-    <row r="33" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D33" s="28"/>
     </row>
-    <row r="34" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:24" x14ac:dyDescent="0.25">
       <c r="E34">
         <v>1</v>
       </c>
@@ -43838,7 +43842,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D35" s="175" t="s">
         <v>381</v>
       </c>
@@ -43923,7 +43927,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="36" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D36" s="28" t="s">
         <v>384</v>
       </c>
@@ -44008,7 +44012,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="37" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D37" s="28" t="s">
         <v>385</v>
       </c>
@@ -44093,7 +44097,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="38" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D38" s="28" t="s">
         <v>386</v>
       </c>
@@ -44178,7 +44182,7 @@
         <v>0.25401599999999996</v>
       </c>
     </row>
-    <row r="39" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D39" s="28" t="s">
         <v>389</v>
       </c>
@@ -44263,7 +44267,7 @@
         <v>2.4192</v>
       </c>
     </row>
-    <row r="40" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D40" s="28" t="s">
         <v>387</v>
       </c>
@@ -44348,7 +44352,7 @@
         <v>2.4192</v>
       </c>
     </row>
-    <row r="41" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D41" s="28" t="s">
         <v>392</v>
       </c>
@@ -44433,7 +44437,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D42" s="28" t="s">
         <v>394</v>
       </c>
@@ -44518,7 +44522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D44" s="28" t="s">
         <v>395</v>
       </c>
@@ -44603,7 +44607,7 @@
         <v>2.4192</v>
       </c>
     </row>
-    <row r="45" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D45" s="28" t="s">
         <v>396</v>
       </c>
@@ -44688,7 +44692,7 @@
         <v>104.99999999999999</v>
       </c>
     </row>
-    <row r="47" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D47" s="28" t="s">
         <v>182</v>
       </c>
@@ -44773,7 +44777,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="48" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="48" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D48" s="28" t="s">
         <v>183</v>
       </c>
@@ -44858,7 +44862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="4:25" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D50" s="28" t="s">
         <v>404</v>
       </c>
@@ -44943,7 +44947,7 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="51" spans="4:25" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D51" s="28" t="s">
         <v>405</v>
       </c>
@@ -45028,7 +45032,7 @@
         <v>4.3680000000000003</v>
       </c>
     </row>
-    <row r="52" spans="4:25" x14ac:dyDescent="0.35">
+    <row r="52" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D52" s="28" t="s">
         <v>407</v>
       </c>
@@ -45113,7 +45117,7 @@
         <v>1.8055555555555556</v>
       </c>
     </row>
-    <row r="54" spans="4:25" x14ac:dyDescent="0.35">
+    <row r="54" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D54" s="28" t="s">
         <v>411</v>
       </c>
@@ -45201,7 +45205,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="55" spans="4:25" x14ac:dyDescent="0.35">
+    <row r="55" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D55" s="28" t="s">
         <v>412</v>
       </c>
@@ -45286,7 +45290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="4:25" x14ac:dyDescent="0.35">
+    <row r="56" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D56" s="28" t="s">
         <v>413</v>
       </c>
@@ -45370,7 +45374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="4:25" x14ac:dyDescent="0.35">
+    <row r="58" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
         <v>415</v>
       </c>
@@ -45455,7 +45459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="4:25" x14ac:dyDescent="0.35">
+    <row r="59" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>416</v>
       </c>
@@ -45547,6 +45551,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CF72F43736E84F41BD4B3E7ABAD1B9F8" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d41e9362d2f52e62f002b8bc1f10a2a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -45660,33 +45679,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{450E0136-3BAD-49BB-8AF7-407A6C7ED0D6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C792D54-93DE-44B5-8029-9C9ACFC0E2BA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -45707,9 +45703,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C792D54-93DE-44B5-8029-9C9ACFC0E2BA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{450E0136-3BAD-49BB-8AF7-407A6C7ED0D6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>